--- a/data_quarter/zb/建筑业/建筑业企业个数、从业人数和劳动生产率.xlsx
+++ b/data_quarter/zb/建筑业/建筑业企业个数、从业人数和劳动生产率.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,41 @@
           <t>直接从事生产经营活动的平均人数_累计值</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>人均施工面积</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>人均竣工产值</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业人员数</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>建筑业企业单位数</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>按总产值计算的劳动生产率</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>直接从事生产经营活动的平均人数</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2003年第二季度</t>
+          <t>2003年B</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -489,11 +519,29 @@
       <c r="G2" t="n">
         <v>1952.86</v>
       </c>
+      <c r="H2" t="n">
+        <v>79.87</v>
+      </c>
+      <c r="I2" t="n">
+        <v>16768.98</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1988.41</v>
+      </c>
+      <c r="K2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="L2" t="n">
+        <v>40551.32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1952.86</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年第四季度</t>
+          <t>2003年D</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -514,11 +562,29 @@
       <c r="G3" t="n">
         <v>2626.65</v>
       </c>
+      <c r="H3" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="I3" t="n">
+        <v>40292.39</v>
+      </c>
+      <c r="J3" t="n">
+        <v>364.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5641</v>
+      </c>
+      <c r="L3" t="n">
+        <v>42693.55</v>
+      </c>
+      <c r="M3" t="n">
+        <v>673.7900000000002</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -539,61 +605,115 @@
       <c r="G4" t="n">
         <v>1675.07</v>
       </c>
+      <c r="H4" t="n">
+        <v>74.81</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9724.34</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1659.54</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40814</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23175.25</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1675.07</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97.08</v>
+        <v>84.88</v>
       </c>
       <c r="C5" t="n">
-        <v>34356.23</v>
+        <v>19293.38</v>
       </c>
       <c r="D5" t="n">
-        <v>2343.67</v>
+        <v>2136.47</v>
       </c>
       <c r="E5" t="n">
-        <v>47447</v>
+        <v>46088</v>
       </c>
       <c r="F5" t="n">
-        <v>70451.33</v>
+        <v>46378.36</v>
       </c>
       <c r="G5" t="n">
-        <v>2340.2</v>
+        <v>2177.02</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10.06999999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9569.040000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>476.9299999999998</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5274</v>
+      </c>
+      <c r="L5" t="n">
+        <v>23203.11</v>
+      </c>
+      <c r="M5" t="n">
+        <v>501.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84.88</v>
+        <v>97.08</v>
       </c>
       <c r="C6" t="n">
-        <v>19293.38</v>
+        <v>34356.23</v>
       </c>
       <c r="D6" t="n">
-        <v>2136.47</v>
+        <v>2343.67</v>
       </c>
       <c r="E6" t="n">
-        <v>46088</v>
+        <v>47447</v>
       </c>
       <c r="F6" t="n">
-        <v>46378.36</v>
+        <v>70451.33</v>
       </c>
       <c r="G6" t="n">
-        <v>2177.02</v>
+        <v>2340.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15062.85</v>
+      </c>
+      <c r="J6" t="n">
+        <v>207.2000000000003</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1359</v>
+      </c>
+      <c r="L6" t="n">
+        <v>24072.97</v>
+      </c>
+      <c r="M6" t="n">
+        <v>163.1799999999998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -614,11 +734,29 @@
       <c r="G7" t="n">
         <v>2721.77</v>
       </c>
+      <c r="H7" t="n">
+        <v>10.18000000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>34122.01</v>
+      </c>
+      <c r="J7" t="n">
+        <v>214.1900000000001</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5862</v>
+      </c>
+      <c r="L7" t="n">
+        <v>31487.31999999999</v>
+      </c>
+      <c r="M7" t="n">
+        <v>381.5700000000002</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -639,61 +777,115 @@
       <c r="G8" t="n">
         <v>1773.76</v>
       </c>
+      <c r="H8" t="n">
+        <v>84.54000000000001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10176.46</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1762.35</v>
+      </c>
+      <c r="K8" t="n">
+        <v>38649</v>
+      </c>
+      <c r="L8" t="n">
+        <v>25449.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1773.76</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>111.27</v>
+        <v>95.93000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>38372.08</v>
+        <v>22194.71</v>
       </c>
       <c r="D9" t="n">
-        <v>2350.9</v>
+        <v>2226.28</v>
       </c>
       <c r="E9" t="n">
-        <v>51223</v>
+        <v>48698</v>
       </c>
       <c r="F9" t="n">
-        <v>81017.5</v>
+        <v>52594.58</v>
       </c>
       <c r="G9" t="n">
-        <v>2475.62</v>
+        <v>2292.36</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12018.25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>463.9300000000003</v>
+      </c>
+      <c r="K9" t="n">
+        <v>10049</v>
+      </c>
+      <c r="L9" t="n">
+        <v>27145.08</v>
+      </c>
+      <c r="M9" t="n">
+        <v>518.6000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95.93000000000001</v>
+        <v>111.27</v>
       </c>
       <c r="C10" t="n">
-        <v>22194.71</v>
+        <v>38372.08</v>
       </c>
       <c r="D10" t="n">
-        <v>2226.28</v>
+        <v>2350.9</v>
       </c>
       <c r="E10" t="n">
-        <v>48698</v>
+        <v>51223</v>
       </c>
       <c r="F10" t="n">
-        <v>52594.58</v>
+        <v>81017.5</v>
       </c>
       <c r="G10" t="n">
-        <v>2292.36</v>
+        <v>2475.62</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15.33999999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16177.37</v>
+      </c>
+      <c r="J10" t="n">
+        <v>124.6199999999999</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2525</v>
+      </c>
+      <c r="L10" t="n">
+        <v>28422.92</v>
+      </c>
+      <c r="M10" t="n">
+        <v>183.2599999999998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -714,11 +906,29 @@
       <c r="G11" t="n">
         <v>2854.5</v>
       </c>
+      <c r="H11" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="I11" t="n">
+        <v>38954.77</v>
+      </c>
+      <c r="J11" t="n">
+        <v>242.48</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4739</v>
+      </c>
+      <c r="L11" t="n">
+        <v>40705.32000000001</v>
+      </c>
+      <c r="M11" t="n">
+        <v>378.8800000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -739,61 +949,115 @@
       <c r="G12" t="n">
         <v>1946.98</v>
       </c>
+      <c r="H12" t="n">
+        <v>92.11</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11621.02</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1922.4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>42540</v>
+      </c>
+      <c r="L12" t="n">
+        <v>28355.64</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1946.98</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>117.37</v>
+        <v>106.39</v>
       </c>
       <c r="C13" t="n">
-        <v>42535.3</v>
+        <v>25453.04</v>
       </c>
       <c r="D13" t="n">
-        <v>2615.72</v>
+        <v>2407</v>
       </c>
       <c r="E13" t="n">
-        <v>53337</v>
+        <v>51160</v>
       </c>
       <c r="F13" t="n">
-        <v>91472.28</v>
+        <v>60336.51</v>
       </c>
       <c r="G13" t="n">
-        <v>2723.73</v>
+        <v>2474.64</v>
+      </c>
+      <c r="H13" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="I13" t="n">
+        <v>13832.02</v>
+      </c>
+      <c r="J13" t="n">
+        <v>484.5999999999999</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8620</v>
+      </c>
+      <c r="L13" t="n">
+        <v>31980.87</v>
+      </c>
+      <c r="M13" t="n">
+        <v>527.6599999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>106.39</v>
+        <v>117.37</v>
       </c>
       <c r="C14" t="n">
-        <v>25453.04</v>
+        <v>42535.3</v>
       </c>
       <c r="D14" t="n">
-        <v>2407</v>
+        <v>2615.72</v>
       </c>
       <c r="E14" t="n">
-        <v>51160</v>
+        <v>53337</v>
       </c>
       <c r="F14" t="n">
-        <v>60336.51</v>
+        <v>91472.28</v>
       </c>
       <c r="G14" t="n">
-        <v>2474.64</v>
+        <v>2723.73</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="I14" t="n">
+        <v>17082.26</v>
+      </c>
+      <c r="J14" t="n">
+        <v>208.7199999999998</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2177</v>
+      </c>
+      <c r="L14" t="n">
+        <v>31135.77</v>
+      </c>
+      <c r="M14" t="n">
+        <v>249.0900000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -814,11 +1078,29 @@
       <c r="G15" t="n">
         <v>3151.6</v>
       </c>
+      <c r="H15" t="n">
+        <v>9.420000000000002</v>
+      </c>
+      <c r="I15" t="n">
+        <v>40125</v>
+      </c>
+      <c r="J15" t="n">
+        <v>221.1800000000003</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3380</v>
+      </c>
+      <c r="L15" t="n">
+        <v>38542.45</v>
+      </c>
+      <c r="M15" t="n">
+        <v>427.8699999999999</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -839,61 +1121,115 @@
       <c r="G16" t="n">
         <v>1999.3484</v>
       </c>
+      <c r="H16" t="n">
+        <v>108.94</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14777.44</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2010.8127</v>
+      </c>
+      <c r="K16" t="n">
+        <v>44958</v>
+      </c>
+      <c r="L16" t="n">
+        <v>33554.94</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1999.3484</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>132.64</v>
+        <v>117.38</v>
       </c>
       <c r="C17" t="n">
-        <v>51624.09</v>
+        <v>30306.39</v>
       </c>
       <c r="D17" t="n">
-        <v>2772.5335</v>
+        <v>2557.68</v>
       </c>
       <c r="E17" t="n">
-        <v>55984</v>
+        <v>53657</v>
       </c>
       <c r="F17" t="n">
-        <v>107223.61</v>
+        <v>69468.03999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>2852.1927</v>
+        <v>2621.76</v>
+      </c>
+      <c r="H17" t="n">
+        <v>8.439999999999998</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15528.95</v>
+      </c>
+      <c r="J17" t="n">
+        <v>546.8672999999999</v>
+      </c>
+      <c r="K17" t="n">
+        <v>8699</v>
+      </c>
+      <c r="L17" t="n">
+        <v>35913.09999999999</v>
+      </c>
+      <c r="M17" t="n">
+        <v>622.4116000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>117.38</v>
+        <v>132.64</v>
       </c>
       <c r="C18" t="n">
-        <v>30306.39</v>
+        <v>51624.09</v>
       </c>
       <c r="D18" t="n">
-        <v>2557.68</v>
+        <v>2772.5335</v>
       </c>
       <c r="E18" t="n">
-        <v>53657</v>
+        <v>55984</v>
       </c>
       <c r="F18" t="n">
-        <v>69468.03999999999</v>
+        <v>107223.61</v>
       </c>
       <c r="G18" t="n">
-        <v>2621.76</v>
+        <v>2852.1927</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15.25999999999999</v>
+      </c>
+      <c r="I18" t="n">
+        <v>21317.7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>214.8535000000002</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2327</v>
+      </c>
+      <c r="L18" t="n">
+        <v>37755.57000000001</v>
+      </c>
+      <c r="M18" t="n">
+        <v>230.4326999999998</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -914,11 +1250,29 @@
       <c r="G19" t="n">
         <v>3649.9055</v>
       </c>
+      <c r="H19" t="n">
+        <v>129.67</v>
+      </c>
+      <c r="I19" t="n">
+        <v>32884.63</v>
+      </c>
+      <c r="J19" t="n">
+        <v>312.8569000000002</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3272</v>
+      </c>
+      <c r="L19" t="n">
+        <v>29817.25999999999</v>
+      </c>
+      <c r="M19" t="n">
+        <v>797.7127999999998</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -939,61 +1293,115 @@
       <c r="G20" t="n">
         <v>2172.24</v>
       </c>
+      <c r="H20" t="n">
+        <v>123.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>17117</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2193.66</v>
+      </c>
+      <c r="K20" t="n">
+        <v>47688</v>
+      </c>
+      <c r="L20" t="n">
+        <v>38426</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2172.24</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>142</v>
+        <v>136.3</v>
       </c>
       <c r="C21" t="n">
-        <v>56234</v>
+        <v>36620</v>
       </c>
       <c r="D21" t="n">
-        <v>2919.5</v>
+        <v>2721.07</v>
       </c>
       <c r="E21" t="n">
-        <v>58832</v>
+        <v>56314</v>
       </c>
       <c r="F21" t="n">
-        <v>122007</v>
+        <v>83593</v>
       </c>
       <c r="G21" t="n">
-        <v>3077.89</v>
+        <v>2711.29</v>
+      </c>
+      <c r="H21" t="n">
+        <v>13.20000000000002</v>
+      </c>
+      <c r="I21" t="n">
+        <v>19503</v>
+      </c>
+      <c r="J21" t="n">
+        <v>527.4100000000003</v>
+      </c>
+      <c r="K21" t="n">
+        <v>8626</v>
+      </c>
+      <c r="L21" t="n">
+        <v>45167</v>
+      </c>
+      <c r="M21" t="n">
+        <v>539.0500000000002</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>136.3</v>
+        <v>142</v>
       </c>
       <c r="C22" t="n">
-        <v>36620</v>
+        <v>56234</v>
       </c>
       <c r="D22" t="n">
-        <v>2721.07</v>
+        <v>2919.5</v>
       </c>
       <c r="E22" t="n">
-        <v>56314</v>
+        <v>58832</v>
       </c>
       <c r="F22" t="n">
-        <v>83593</v>
+        <v>122007</v>
       </c>
       <c r="G22" t="n">
-        <v>2711.29</v>
+        <v>3077.89</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.699999999999989</v>
+      </c>
+      <c r="I22" t="n">
+        <v>19614</v>
+      </c>
+      <c r="J22" t="n">
+        <v>198.4299999999998</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2518</v>
+      </c>
+      <c r="L22" t="n">
+        <v>38414</v>
+      </c>
+      <c r="M22" t="n">
+        <v>366.5999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1014,11 +1422,29 @@
       <c r="G23" t="n">
         <v>3671.48</v>
       </c>
+      <c r="H23" t="n">
+        <v>1.699999999999989</v>
+      </c>
+      <c r="I23" t="n">
+        <v>41593</v>
+      </c>
+      <c r="J23" t="n">
+        <v>334.1100000000001</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5320</v>
+      </c>
+      <c r="L23" t="n">
+        <v>44531</v>
+      </c>
+      <c r="M23" t="n">
+        <v>593.5900000000001</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1039,61 +1465,115 @@
       <c r="G24" t="n">
         <v>2306.52</v>
       </c>
+      <c r="H24" t="n">
+        <v>125.7</v>
+      </c>
+      <c r="I24" t="n">
+        <v>19279</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2307.29</v>
+      </c>
+      <c r="K24" t="n">
+        <v>52188</v>
+      </c>
+      <c r="L24" t="n">
+        <v>43861</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2306.52</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>141.1</v>
+        <v>132.2</v>
       </c>
       <c r="C25" t="n">
-        <v>63707</v>
+        <v>40954</v>
       </c>
       <c r="D25" t="n">
-        <v>3162.7</v>
+        <v>2853.6</v>
       </c>
       <c r="E25" t="n">
-        <v>63891</v>
+        <v>61215</v>
       </c>
       <c r="F25" t="n">
-        <v>139912</v>
+        <v>94809</v>
       </c>
       <c r="G25" t="n">
-        <v>3324.8</v>
+        <v>2900.8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6.499999999999986</v>
+      </c>
+      <c r="I25" t="n">
+        <v>21675</v>
+      </c>
+      <c r="J25" t="n">
+        <v>546.3099999999999</v>
+      </c>
+      <c r="K25" t="n">
+        <v>9027</v>
+      </c>
+      <c r="L25" t="n">
+        <v>50948</v>
+      </c>
+      <c r="M25" t="n">
+        <v>594.2800000000002</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>132.2</v>
+        <v>141.1</v>
       </c>
       <c r="C26" t="n">
-        <v>40954</v>
+        <v>63707</v>
       </c>
       <c r="D26" t="n">
-        <v>2853.6</v>
+        <v>3162.7</v>
       </c>
       <c r="E26" t="n">
-        <v>61215</v>
+        <v>63891</v>
       </c>
       <c r="F26" t="n">
-        <v>94809</v>
+        <v>139912</v>
       </c>
       <c r="G26" t="n">
-        <v>2900.8</v>
+        <v>3324.8</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8.900000000000006</v>
+      </c>
+      <c r="I26" t="n">
+        <v>22753</v>
+      </c>
+      <c r="J26" t="n">
+        <v>309.0999999999999</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2676</v>
+      </c>
+      <c r="L26" t="n">
+        <v>45103</v>
+      </c>
+      <c r="M26" t="n">
+        <v>424</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1114,11 +1594,29 @@
       <c r="G27" t="n">
         <v>4153.6</v>
       </c>
+      <c r="H27" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="I27" t="n">
+        <v>41739</v>
+      </c>
+      <c r="J27" t="n">
+        <v>434.7000000000003</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4392</v>
+      </c>
+      <c r="L27" t="n">
+        <v>42735</v>
+      </c>
+      <c r="M27" t="n">
+        <v>828.8000000000002</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1139,61 +1637,115 @@
       <c r="G28" t="n">
         <v>2579.1</v>
       </c>
+      <c r="H28" t="n">
+        <v>129.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>21803</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2581.3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>55757</v>
+      </c>
+      <c r="L28" t="n">
+        <v>49268</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2579.1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>148.1</v>
+        <v>139.5</v>
       </c>
       <c r="C29" t="n">
-        <v>68139</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="n">
-        <v>3615.53</v>
+        <v>3211.1</v>
       </c>
       <c r="E29" t="n">
-        <v>66742</v>
+        <v>64184</v>
       </c>
       <c r="F29" t="n">
-        <v>152591</v>
+        <v>104917</v>
       </c>
       <c r="G29" t="n">
-        <v>3776.53</v>
+        <v>3259.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10.09999999999999</v>
+      </c>
+      <c r="I29" t="n">
+        <v>23405</v>
+      </c>
+      <c r="J29" t="n">
+        <v>629.7999999999997</v>
+      </c>
+      <c r="K29" t="n">
+        <v>8427</v>
+      </c>
+      <c r="L29" t="n">
+        <v>55649</v>
+      </c>
+      <c r="M29" t="n">
+        <v>680</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>139.5</v>
+        <v>148.1</v>
       </c>
       <c r="C30" t="n">
-        <v>45208</v>
+        <v>68139</v>
       </c>
       <c r="D30" t="n">
-        <v>3211.1</v>
+        <v>3615.53</v>
       </c>
       <c r="E30" t="n">
-        <v>64184</v>
+        <v>66742</v>
       </c>
       <c r="F30" t="n">
-        <v>104917</v>
+        <v>152591</v>
       </c>
       <c r="G30" t="n">
-        <v>3259.1</v>
+        <v>3776.53</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8.599999999999994</v>
+      </c>
+      <c r="I30" t="n">
+        <v>22931</v>
+      </c>
+      <c r="J30" t="n">
+        <v>404.4300000000003</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2558</v>
+      </c>
+      <c r="L30" t="n">
+        <v>47674</v>
+      </c>
+      <c r="M30" t="n">
+        <v>517.4300000000003</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1214,11 +1766,29 @@
       <c r="G31" t="n">
         <v>4624.27</v>
       </c>
+      <c r="H31" t="n">
+        <v>3.400000000000006</v>
+      </c>
+      <c r="I31" t="n">
+        <v>46432</v>
+      </c>
+      <c r="J31" t="n">
+        <v>427.8399999999997</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3319</v>
+      </c>
+      <c r="L31" t="n">
+        <v>53292</v>
+      </c>
+      <c r="M31" t="n">
+        <v>847.7400000000002</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1239,61 +1809,115 @@
       <c r="G32" t="n">
         <v>2933.26</v>
       </c>
+      <c r="H32" t="n">
+        <v>145.8</v>
+      </c>
+      <c r="I32" t="n">
+        <v>23378</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2889.3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>57746</v>
+      </c>
+      <c r="L32" t="n">
+        <v>54875</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2933.26</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>163.6</v>
+        <v>157.5</v>
       </c>
       <c r="C33" t="n">
-        <v>73058</v>
+        <v>48141</v>
       </c>
       <c r="D33" t="n">
-        <v>3930.92</v>
+        <v>3666.72</v>
       </c>
       <c r="E33" t="n">
-        <v>68060</v>
+        <v>65743</v>
       </c>
       <c r="F33" t="n">
-        <v>171012</v>
+        <v>119004</v>
       </c>
       <c r="G33" t="n">
-        <v>4237.47</v>
+        <v>3622.63</v>
+      </c>
+      <c r="H33" t="n">
+        <v>11.69999999999999</v>
+      </c>
+      <c r="I33" t="n">
+        <v>24763</v>
+      </c>
+      <c r="J33" t="n">
+        <v>777.4199999999996</v>
+      </c>
+      <c r="K33" t="n">
+        <v>7997</v>
+      </c>
+      <c r="L33" t="n">
+        <v>64129</v>
+      </c>
+      <c r="M33" t="n">
+        <v>689.3699999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>157.5</v>
+        <v>163.6</v>
       </c>
       <c r="C34" t="n">
-        <v>48141</v>
+        <v>73058</v>
       </c>
       <c r="D34" t="n">
-        <v>3666.72</v>
+        <v>3930.92</v>
       </c>
       <c r="E34" t="n">
-        <v>65743</v>
+        <v>68060</v>
       </c>
       <c r="F34" t="n">
-        <v>119004</v>
+        <v>171012</v>
       </c>
       <c r="G34" t="n">
-        <v>3622.63</v>
+        <v>4237.47</v>
+      </c>
+      <c r="H34" t="n">
+        <v>6.099999999999994</v>
+      </c>
+      <c r="I34" t="n">
+        <v>24917</v>
+      </c>
+      <c r="J34" t="n">
+        <v>264.2000000000003</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2317</v>
+      </c>
+      <c r="L34" t="n">
+        <v>52008</v>
+      </c>
+      <c r="M34" t="n">
+        <v>614.8400000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1314,11 +1938,29 @@
       <c r="G35" t="n">
         <v>5136.29</v>
       </c>
+      <c r="H35" t="n">
+        <v>1.200000000000017</v>
+      </c>
+      <c r="I35" t="n">
+        <v>47699</v>
+      </c>
+      <c r="J35" t="n">
+        <v>380.1499999999996</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2354</v>
+      </c>
+      <c r="L35" t="n">
+        <v>58208</v>
+      </c>
+      <c r="M35" t="n">
+        <v>898.8199999999997</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1339,61 +1981,115 @@
       <c r="G36" t="n">
         <v>2935.36</v>
       </c>
+      <c r="H36" t="n">
+        <v>12.39999999999998</v>
+      </c>
+      <c r="I36" t="n">
+        <v>28286</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2767.82</v>
+      </c>
+      <c r="K36" t="n">
+        <v>60600</v>
+      </c>
+      <c r="L36" t="n">
+        <v>64151</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2935.36</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>202.3</v>
+        <v>197</v>
       </c>
       <c r="C37" t="n">
-        <v>93595</v>
+        <v>61630</v>
       </c>
       <c r="D37" t="n">
-        <v>3661.48</v>
+        <v>3238.02</v>
       </c>
       <c r="E37" t="n">
-        <v>71000</v>
+        <v>68529</v>
       </c>
       <c r="F37" t="n">
-        <v>211841</v>
+        <v>145782</v>
       </c>
       <c r="G37" t="n">
-        <v>4023.93</v>
+        <v>3461.31</v>
+      </c>
+      <c r="H37" t="n">
+        <v>19.80000000000001</v>
+      </c>
+      <c r="I37" t="n">
+        <v>33344</v>
+      </c>
+      <c r="J37" t="n">
+        <v>470.1999999999998</v>
+      </c>
+      <c r="K37" t="n">
+        <v>7929</v>
+      </c>
+      <c r="L37" t="n">
+        <v>81631</v>
+      </c>
+      <c r="M37" t="n">
+        <v>525.9499999999998</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>197</v>
+        <v>202.3</v>
       </c>
       <c r="C38" t="n">
-        <v>61630</v>
+        <v>93595</v>
       </c>
       <c r="D38" t="n">
-        <v>3238.02</v>
+        <v>3661.48</v>
       </c>
       <c r="E38" t="n">
-        <v>68529</v>
+        <v>71000</v>
       </c>
       <c r="F38" t="n">
-        <v>145782</v>
+        <v>211841</v>
       </c>
       <c r="G38" t="n">
-        <v>3461.31</v>
+        <v>4023.93</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5.300000000000011</v>
+      </c>
+      <c r="I38" t="n">
+        <v>31965</v>
+      </c>
+      <c r="J38" t="n">
+        <v>423.46</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2471</v>
+      </c>
+      <c r="L38" t="n">
+        <v>66059</v>
+      </c>
+      <c r="M38" t="n">
+        <v>562.6199999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1414,11 +2110,29 @@
       <c r="G39" t="n">
         <v>5051.27</v>
       </c>
+      <c r="H39" t="n">
+        <v>194.3</v>
+      </c>
+      <c r="I39" t="n">
+        <v>55880</v>
+      </c>
+      <c r="J39" t="n">
+        <v>519.3600000000001</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3042</v>
+      </c>
+      <c r="L39" t="n">
+        <v>56019</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1027.340000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1439,61 +2153,115 @@
       <c r="G40" t="n">
         <v>3026.26</v>
       </c>
+      <c r="H40" t="n">
+        <v>5.599999999999994</v>
+      </c>
+      <c r="I40" t="n">
+        <v>34444</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3221.28</v>
+      </c>
+      <c r="K40" t="n">
+        <v>64162</v>
+      </c>
+      <c r="L40" t="n">
+        <v>74791</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3026.26</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.5</v>
+        <v>209.9</v>
       </c>
       <c r="C41" t="n">
-        <v>108402</v>
+        <v>71099</v>
       </c>
       <c r="D41" t="n">
-        <v>4078.88</v>
+        <v>3799.04</v>
       </c>
       <c r="E41" t="n">
-        <v>74432</v>
+        <v>72050</v>
       </c>
       <c r="F41" t="n">
-        <v>240089</v>
+        <v>160766</v>
       </c>
       <c r="G41" t="n">
-        <v>4227.52</v>
+        <v>3743.14</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+      <c r="I41" t="n">
+        <v>36655</v>
+      </c>
+      <c r="J41" t="n">
+        <v>577.7599999999998</v>
+      </c>
+      <c r="K41" t="n">
+        <v>7888</v>
+      </c>
+      <c r="L41" t="n">
+        <v>85975</v>
+      </c>
+      <c r="M41" t="n">
+        <v>716.8799999999997</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>209.9</v>
+        <v>220.5</v>
       </c>
       <c r="C42" t="n">
-        <v>71099</v>
+        <v>108402</v>
       </c>
       <c r="D42" t="n">
-        <v>3799.04</v>
+        <v>4078.88</v>
       </c>
       <c r="E42" t="n">
-        <v>72050</v>
+        <v>74432</v>
       </c>
       <c r="F42" t="n">
-        <v>160766</v>
+        <v>240089</v>
       </c>
       <c r="G42" t="n">
-        <v>3743.14</v>
+        <v>4227.52</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10.59999999999999</v>
+      </c>
+      <c r="I42" t="n">
+        <v>37303</v>
+      </c>
+      <c r="J42" t="n">
+        <v>279.8400000000001</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2382</v>
+      </c>
+      <c r="L42" t="n">
+        <v>79323</v>
+      </c>
+      <c r="M42" t="n">
+        <v>484.3800000000006</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1514,11 +2282,29 @@
       <c r="G43" t="n">
         <v>4904.32</v>
       </c>
+      <c r="H43" t="n">
+        <v>9.900000000000006</v>
+      </c>
+      <c r="I43" t="n">
+        <v>75515</v>
+      </c>
+      <c r="J43" t="n">
+        <v>420.4300000000003</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5096</v>
+      </c>
+      <c r="L43" t="n">
+        <v>84753</v>
+      </c>
+      <c r="M43" t="n">
+        <v>676.7999999999993</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1539,61 +2325,115 @@
       <c r="G44" t="n">
         <v>3665.55</v>
       </c>
+      <c r="H44" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="I44" t="n">
+        <v>32999</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3418.95</v>
+      </c>
+      <c r="K44" t="n">
+        <v>68332</v>
+      </c>
+      <c r="L44" t="n">
+        <v>71580</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3665.55</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>215.8</v>
+        <v>197.5</v>
       </c>
       <c r="C45" t="n">
-        <v>107819</v>
+        <v>68134</v>
       </c>
       <c r="D45" t="n">
-        <v>4191.69</v>
+        <v>3934.89</v>
       </c>
       <c r="E45" t="n">
-        <v>77818</v>
+        <v>75242</v>
       </c>
       <c r="F45" t="n">
-        <v>237642</v>
+        <v>153755</v>
       </c>
       <c r="G45" t="n">
-        <v>4849.64</v>
+        <v>4513.64</v>
+      </c>
+      <c r="H45" t="n">
+        <v>6.800000000000011</v>
+      </c>
+      <c r="I45" t="n">
+        <v>35135</v>
+      </c>
+      <c r="J45" t="n">
+        <v>515.9400000000001</v>
+      </c>
+      <c r="K45" t="n">
+        <v>6910</v>
+      </c>
+      <c r="L45" t="n">
+        <v>82175</v>
+      </c>
+      <c r="M45" t="n">
+        <v>848.0900000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>197.5</v>
+        <v>215.8</v>
       </c>
       <c r="C46" t="n">
-        <v>68134</v>
+        <v>107819</v>
       </c>
       <c r="D46" t="n">
-        <v>3934.89</v>
+        <v>4191.69</v>
       </c>
       <c r="E46" t="n">
-        <v>75242</v>
+        <v>77818</v>
       </c>
       <c r="F46" t="n">
-        <v>153755</v>
+        <v>237642</v>
       </c>
       <c r="G46" t="n">
-        <v>4513.64</v>
+        <v>4849.64</v>
+      </c>
+      <c r="H46" t="n">
+        <v>18.30000000000001</v>
+      </c>
+      <c r="I46" t="n">
+        <v>39685</v>
+      </c>
+      <c r="J46" t="n">
+        <v>256.7999999999997</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2576</v>
+      </c>
+      <c r="L46" t="n">
+        <v>83887</v>
+      </c>
+      <c r="M46" t="n">
+        <v>336</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1614,11 +2454,29 @@
       <c r="G47" t="n">
         <v>5516</v>
       </c>
+      <c r="H47" t="n">
+        <v>10.89999999999998</v>
+      </c>
+      <c r="I47" t="n">
+        <v>74776.89999999999</v>
+      </c>
+      <c r="J47" t="n">
+        <v>768.9100000000008</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3323</v>
+      </c>
+      <c r="L47" t="n">
+        <v>82724.29999999999</v>
+      </c>
+      <c r="M47" t="n">
+        <v>666.3599999999997</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1639,61 +2497,115 @@
       <c r="G48" t="n">
         <v>3622.74</v>
       </c>
+      <c r="H48" t="n">
+        <v>207.5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>39423</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3573.64</v>
+      </c>
+      <c r="K48" t="n">
+        <v>68479</v>
+      </c>
+      <c r="L48" t="n">
+        <v>79761</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3622.74</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>226.1</v>
+        <v>219.1</v>
       </c>
       <c r="C49" t="n">
-        <v>124541</v>
+        <v>82151</v>
       </c>
       <c r="D49" t="n">
-        <v>4457.99</v>
+        <v>4068.05</v>
       </c>
       <c r="E49" t="n">
-        <v>77798</v>
+        <v>75582</v>
       </c>
       <c r="F49" t="n">
-        <v>251440</v>
+        <v>172512</v>
       </c>
       <c r="G49" t="n">
-        <v>4690.86</v>
+        <v>4195.33</v>
+      </c>
+      <c r="H49" t="n">
+        <v>11.59999999999999</v>
+      </c>
+      <c r="I49" t="n">
+        <v>42728</v>
+      </c>
+      <c r="J49" t="n">
+        <v>494.4100000000003</v>
+      </c>
+      <c r="K49" t="n">
+        <v>7103</v>
+      </c>
+      <c r="L49" t="n">
+        <v>92751</v>
+      </c>
+      <c r="M49" t="n">
+        <v>572.5900000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>219.1</v>
+        <v>226.1</v>
       </c>
       <c r="C50" t="n">
-        <v>82151</v>
+        <v>124541</v>
       </c>
       <c r="D50" t="n">
-        <v>4068.05</v>
+        <v>4457.99</v>
       </c>
       <c r="E50" t="n">
-        <v>75582</v>
+        <v>77798</v>
       </c>
       <c r="F50" t="n">
-        <v>172512</v>
+        <v>251440</v>
       </c>
       <c r="G50" t="n">
-        <v>4195.33</v>
+        <v>4690.86</v>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+      <c r="I50" t="n">
+        <v>42390</v>
+      </c>
+      <c r="J50" t="n">
+        <v>389.9399999999996</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2216</v>
+      </c>
+      <c r="L50" t="n">
+        <v>78928</v>
+      </c>
+      <c r="M50" t="n">
+        <v>495.5299999999997</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1714,11 +2626,29 @@
       <c r="G51" t="n">
         <v>5583.5</v>
       </c>
+      <c r="H51" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>72675</v>
+      </c>
+      <c r="J51" t="n">
+        <v>545.4099999999999</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3113</v>
+      </c>
+      <c r="L51" t="n">
+        <v>72293</v>
+      </c>
+      <c r="M51" t="n">
+        <v>892.6400000000003</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1739,61 +2669,115 @@
       <c r="G52" t="n">
         <v>3674.43</v>
       </c>
+      <c r="H52" t="n">
+        <v>205.1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>43211</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3632.19</v>
+      </c>
+      <c r="K52" t="n">
+        <v>69925</v>
+      </c>
+      <c r="L52" t="n">
+        <v>83958</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3674.43</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>226.8</v>
+        <v>216.2</v>
       </c>
       <c r="C53" t="n">
-        <v>128063</v>
+        <v>86220</v>
       </c>
       <c r="D53" t="n">
-        <v>4485.07999999999</v>
+        <v>4204.41</v>
       </c>
       <c r="E53" t="n">
-        <v>80147</v>
+        <v>77058</v>
       </c>
       <c r="F53" t="n">
-        <v>264657</v>
+        <v>178661</v>
       </c>
       <c r="G53" t="n">
-        <v>4753.01</v>
+        <v>4335.69</v>
+      </c>
+      <c r="H53" t="n">
+        <v>11.09999999999999</v>
+      </c>
+      <c r="I53" t="n">
+        <v>43009</v>
+      </c>
+      <c r="J53" t="n">
+        <v>572.2199999999998</v>
+      </c>
+      <c r="K53" t="n">
+        <v>7133</v>
+      </c>
+      <c r="L53" t="n">
+        <v>94703</v>
+      </c>
+      <c r="M53" t="n">
+        <v>661.2599999999998</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>216.2</v>
+        <v>226.8</v>
       </c>
       <c r="C54" t="n">
-        <v>86220</v>
+        <v>128063</v>
       </c>
       <c r="D54" t="n">
-        <v>4204.41</v>
+        <v>4485.07999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>77058</v>
+        <v>80147</v>
       </c>
       <c r="F54" t="n">
-        <v>178661</v>
+        <v>264657</v>
       </c>
       <c r="G54" t="n">
-        <v>4335.69</v>
+        <v>4753.01</v>
+      </c>
+      <c r="H54" t="n">
+        <v>10.60000000000002</v>
+      </c>
+      <c r="I54" t="n">
+        <v>41843</v>
+      </c>
+      <c r="J54" t="n">
+        <v>280.6699999999901</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3089</v>
+      </c>
+      <c r="L54" t="n">
+        <v>85996</v>
+      </c>
+      <c r="M54" t="n">
+        <v>417.3200000000006</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1814,11 +2798,29 @@
       <c r="G55" t="n">
         <v>5757.02</v>
       </c>
+      <c r="H55" t="n">
+        <v>219.6</v>
+      </c>
+      <c r="I55" t="n">
+        <v>68032</v>
+      </c>
+      <c r="J55" t="n">
+        <v>700.1600000000099</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2870</v>
+      </c>
+      <c r="L55" t="n">
+        <v>71570</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1004.01</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1839,61 +2841,115 @@
       <c r="G56" t="n">
         <v>3854.86</v>
       </c>
+      <c r="H56" t="n">
+        <v>200.3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>43577</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3749.18</v>
+      </c>
+      <c r="K56" t="n">
+        <v>72726</v>
+      </c>
+      <c r="L56" t="n">
+        <v>88690</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3854.86</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>225.7</v>
+        <v>216.3</v>
       </c>
       <c r="C57" t="n">
-        <v>128736</v>
+        <v>87398</v>
       </c>
       <c r="D57" t="n">
-        <v>4698.73</v>
+        <v>4339.09</v>
       </c>
       <c r="E57" t="n">
-        <v>84185</v>
+        <v>80611</v>
       </c>
       <c r="F57" t="n">
-        <v>278577</v>
+        <v>191491</v>
       </c>
       <c r="G57" t="n">
-        <v>4998.98</v>
+        <v>4484.34</v>
+      </c>
+      <c r="H57" t="n">
+        <v>16</v>
+      </c>
+      <c r="I57" t="n">
+        <v>43821</v>
+      </c>
+      <c r="J57" t="n">
+        <v>589.9100000000003</v>
+      </c>
+      <c r="K57" t="n">
+        <v>7885</v>
+      </c>
+      <c r="L57" t="n">
+        <v>102801</v>
+      </c>
+      <c r="M57" t="n">
+        <v>629.48</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>216.3</v>
+        <v>225.7</v>
       </c>
       <c r="C58" t="n">
-        <v>87398</v>
+        <v>128736</v>
       </c>
       <c r="D58" t="n">
-        <v>4339.09</v>
+        <v>4698.73</v>
       </c>
       <c r="E58" t="n">
-        <v>80611</v>
+        <v>84185</v>
       </c>
       <c r="F58" t="n">
-        <v>191491</v>
+        <v>278577</v>
       </c>
       <c r="G58" t="n">
-        <v>4484.34</v>
+        <v>4998.98</v>
+      </c>
+      <c r="H58" t="n">
+        <v>9.399999999999977</v>
+      </c>
+      <c r="I58" t="n">
+        <v>41338</v>
+      </c>
+      <c r="J58" t="n">
+        <v>359.6399999999994</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3574</v>
+      </c>
+      <c r="L58" t="n">
+        <v>87086</v>
+      </c>
+      <c r="M58" t="n">
+        <v>514.6399999999994</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1914,11 +2970,29 @@
       <c r="G59" t="n">
         <v>6157.61</v>
       </c>
+      <c r="H59" t="n">
+        <v>213.9</v>
+      </c>
+      <c r="I59" t="n">
+        <v>60935</v>
+      </c>
+      <c r="J59" t="n">
+        <v>838.1700000000001</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3874</v>
+      </c>
+      <c r="L59" t="n">
+        <v>68885</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1158.63</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1939,61 +3013,115 @@
       <c r="G60" t="n">
         <v>4103.01</v>
       </c>
+      <c r="H60" t="n">
+        <v>199.8</v>
+      </c>
+      <c r="I60" t="n">
+        <v>45068</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3934.85</v>
+      </c>
+      <c r="K60" t="n">
+        <v>77822</v>
+      </c>
+      <c r="L60" t="n">
+        <v>94301</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4103.01</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>232.1</v>
+        <v>225.1</v>
       </c>
       <c r="C61" t="n">
-        <v>127660</v>
+        <v>86389</v>
       </c>
       <c r="D61" t="n">
-        <v>4769.95</v>
+        <v>4419.24</v>
       </c>
       <c r="E61" t="n">
-        <v>90215</v>
+        <v>85993</v>
       </c>
       <c r="F61" t="n">
-        <v>296514</v>
+        <v>203868</v>
       </c>
       <c r="G61" t="n">
-        <v>5137.24</v>
+        <v>4649.6</v>
+      </c>
+      <c r="H61" t="n">
+        <v>25.29999999999998</v>
+      </c>
+      <c r="I61" t="n">
+        <v>41321</v>
+      </c>
+      <c r="J61" t="n">
+        <v>484.3899999999999</v>
+      </c>
+      <c r="K61" t="n">
+        <v>8171</v>
+      </c>
+      <c r="L61" t="n">
+        <v>109567</v>
+      </c>
+      <c r="M61" t="n">
+        <v>546.5900000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>225.1</v>
+        <v>232.1</v>
       </c>
       <c r="C62" t="n">
-        <v>86389</v>
+        <v>127660</v>
       </c>
       <c r="D62" t="n">
-        <v>4419.24</v>
+        <v>4769.95</v>
       </c>
       <c r="E62" t="n">
-        <v>85993</v>
+        <v>90215</v>
       </c>
       <c r="F62" t="n">
-        <v>203868</v>
+        <v>296514</v>
       </c>
       <c r="G62" t="n">
-        <v>4649.6</v>
+        <v>5137.24</v>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+      <c r="I62" t="n">
+        <v>41271</v>
+      </c>
+      <c r="J62" t="n">
+        <v>350.71</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4222</v>
+      </c>
+      <c r="L62" t="n">
+        <v>92646</v>
+      </c>
+      <c r="M62" t="n">
+        <v>487.6399999999994</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2014,11 +3142,29 @@
       <c r="G63" t="n">
         <v>6299.4</v>
       </c>
+      <c r="H63" t="n">
+        <v>223.7</v>
+      </c>
+      <c r="I63" t="n">
+        <v>64082</v>
+      </c>
+      <c r="J63" t="n">
+        <v>793.3500000000004</v>
+      </c>
+      <c r="K63" t="n">
+        <v>5185</v>
+      </c>
+      <c r="L63" t="n">
+        <v>76673</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1162.16</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2039,61 +3185,115 @@
       <c r="G64" t="n">
         <v>4091.15</v>
       </c>
+      <c r="H64" t="n">
+        <v>217.9</v>
+      </c>
+      <c r="I64" t="n">
+        <v>46110</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3894.05</v>
+      </c>
+      <c r="K64" t="n">
+        <v>84530</v>
+      </c>
+      <c r="L64" t="n">
+        <v>104514</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4091.15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>240.3</v>
+        <v>234.2</v>
       </c>
       <c r="C65" t="n">
-        <v>130826</v>
+        <v>89915</v>
       </c>
       <c r="D65" t="n">
-        <v>4679.25</v>
+        <v>4309.83</v>
       </c>
       <c r="E65" t="n">
-        <v>97378</v>
+        <v>92733</v>
       </c>
       <c r="F65" t="n">
-        <v>316100</v>
+        <v>221424</v>
       </c>
       <c r="G65" t="n">
-        <v>5139.75</v>
+        <v>4589.2</v>
+      </c>
+      <c r="H65" t="n">
+        <v>16.29999999999998</v>
+      </c>
+      <c r="I65" t="n">
+        <v>43805</v>
+      </c>
+      <c r="J65" t="n">
+        <v>415.7799999999997</v>
+      </c>
+      <c r="K65" t="n">
+        <v>8203</v>
+      </c>
+      <c r="L65" t="n">
+        <v>116910</v>
+      </c>
+      <c r="M65" t="n">
+        <v>498.0499999999997</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>234.2</v>
+        <v>240.3</v>
       </c>
       <c r="C66" t="n">
-        <v>89915</v>
+        <v>130826</v>
       </c>
       <c r="D66" t="n">
-        <v>4309.83</v>
+        <v>4679.25</v>
       </c>
       <c r="E66" t="n">
-        <v>92733</v>
+        <v>97378</v>
       </c>
       <c r="F66" t="n">
-        <v>221424</v>
+        <v>316100</v>
       </c>
       <c r="G66" t="n">
-        <v>4589.2</v>
+        <v>5139.75</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6.100000000000023</v>
+      </c>
+      <c r="I66" t="n">
+        <v>40911</v>
+      </c>
+      <c r="J66" t="n">
+        <v>369.4200000000001</v>
+      </c>
+      <c r="K66" t="n">
+        <v>4645</v>
+      </c>
+      <c r="L66" t="n">
+        <v>94676</v>
+      </c>
+      <c r="M66" t="n">
+        <v>550.5500000000002</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2114,11 +3314,29 @@
       <c r="G67" t="n">
         <v>6216.49</v>
       </c>
+      <c r="H67" t="n">
+        <v>231.9</v>
+      </c>
+      <c r="I67" t="n">
+        <v>68377</v>
+      </c>
+      <c r="J67" t="n">
+        <v>748.1199999999999</v>
+      </c>
+      <c r="K67" t="n">
+        <v>6436</v>
+      </c>
+      <c r="L67" t="n">
+        <v>83556</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1076.74</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2139,61 +3357,115 @@
       <c r="G68" t="n">
         <v>3480.39</v>
       </c>
+      <c r="H68" t="n">
+        <v>24.79999999999998</v>
+      </c>
+      <c r="I68" t="n">
+        <v>41789</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3322.89</v>
+      </c>
+      <c r="K68" t="n">
+        <v>89462</v>
+      </c>
+      <c r="L68" t="n">
+        <v>103197</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3480.39</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>250.7</v>
+        <v>257.8</v>
       </c>
       <c r="C69" t="n">
-        <v>127725</v>
+        <v>87497</v>
       </c>
       <c r="D69" t="n">
-        <v>4550.29</v>
+        <v>4120.9</v>
       </c>
       <c r="E69" t="n">
-        <v>108321</v>
+        <v>102712</v>
       </c>
       <c r="F69" t="n">
-        <v>338016</v>
+        <v>232019</v>
       </c>
       <c r="G69" t="n">
-        <v>4968.03</v>
+        <v>4346.19</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.100000000000023</v>
+      </c>
+      <c r="I69" t="n">
+        <v>45708</v>
+      </c>
+      <c r="J69" t="n">
+        <v>798.0099999999998</v>
+      </c>
+      <c r="K69" t="n">
+        <v>13250</v>
+      </c>
+      <c r="L69" t="n">
+        <v>128822</v>
+      </c>
+      <c r="M69" t="n">
+        <v>865.7999999999997</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>257.8</v>
+        <v>250.7</v>
       </c>
       <c r="C70" t="n">
-        <v>87497</v>
+        <v>127725</v>
       </c>
       <c r="D70" t="n">
-        <v>4120.9</v>
+        <v>4550.29</v>
       </c>
       <c r="E70" t="n">
-        <v>102712</v>
+        <v>108321</v>
       </c>
       <c r="F70" t="n">
-        <v>232019</v>
+        <v>338016</v>
       </c>
       <c r="G70" t="n">
-        <v>4346.19</v>
+        <v>4968.03</v>
+      </c>
+      <c r="H70" t="n">
+        <v>250.7</v>
+      </c>
+      <c r="I70" t="n">
+        <v>40228</v>
+      </c>
+      <c r="J70" t="n">
+        <v>429.3900000000003</v>
+      </c>
+      <c r="K70" t="n">
+        <v>5609</v>
+      </c>
+      <c r="L70" t="n">
+        <v>105997</v>
+      </c>
+      <c r="M70" t="n">
+        <v>621.8400000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2214,11 +3486,29 @@
       <c r="G71" t="n">
         <v>6241.27</v>
       </c>
+      <c r="H71" t="n">
+        <v>239.5</v>
+      </c>
+      <c r="I71" t="n">
+        <v>67999</v>
+      </c>
+      <c r="J71" t="n">
+        <v>816.6300000000001</v>
+      </c>
+      <c r="K71" t="n">
+        <v>8395</v>
+      </c>
+      <c r="L71" t="n">
+        <v>84890</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1273.240000000001</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2239,61 +3529,115 @@
       <c r="G72" t="n">
         <v>3851.21</v>
       </c>
+      <c r="H72" t="n">
+        <v>13.40000000000001</v>
+      </c>
+      <c r="I72" t="n">
+        <v>49833</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3584.3</v>
+      </c>
+      <c r="K72" t="n">
+        <v>104204</v>
+      </c>
+      <c r="L72" t="n">
+        <v>122905</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3851.21</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C73" t="n">
-        <v>142553</v>
+        <v>96997</v>
       </c>
       <c r="D73" t="n">
-        <v>4483.87</v>
+        <v>4172.34</v>
       </c>
       <c r="E73" t="n">
-        <v>121346</v>
+        <v>115066</v>
       </c>
       <c r="F73" t="n">
-        <v>376889</v>
+        <v>262199</v>
       </c>
       <c r="G73" t="n">
-        <v>5075.32</v>
+        <v>4570.72</v>
+      </c>
+      <c r="H73" t="n">
+        <v>8.099999999999994</v>
+      </c>
+      <c r="I73" t="n">
+        <v>47164</v>
+      </c>
+      <c r="J73" t="n">
+        <v>588.04</v>
+      </c>
+      <c r="K73" t="n">
+        <v>10862</v>
+      </c>
+      <c r="L73" t="n">
+        <v>139294</v>
+      </c>
+      <c r="M73" t="n">
+        <v>719.5100000000002</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C74" t="n">
-        <v>96997</v>
+        <v>142553</v>
       </c>
       <c r="D74" t="n">
-        <v>4172.34</v>
+        <v>4483.87</v>
       </c>
       <c r="E74" t="n">
-        <v>115066</v>
+        <v>121346</v>
       </c>
       <c r="F74" t="n">
-        <v>262199</v>
+        <v>376889</v>
       </c>
       <c r="G74" t="n">
-        <v>4570.72</v>
+        <v>5075.32</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+      <c r="I74" t="n">
+        <v>45556</v>
+      </c>
+      <c r="J74" t="n">
+        <v>311.5299999999997</v>
+      </c>
+      <c r="K74" t="n">
+        <v>6280</v>
+      </c>
+      <c r="L74" t="n">
+        <v>114690</v>
+      </c>
+      <c r="M74" t="n">
+        <v>504.5999999999995</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2313,6 +3657,24 @@
       </c>
       <c r="G75" t="n">
         <v>6193.68</v>
+      </c>
+      <c r="H75" t="n">
+        <v>254.4</v>
+      </c>
+      <c r="I75" t="n">
+        <v>74641</v>
+      </c>
+      <c r="J75" t="n">
+        <v>799.0699999999997</v>
+      </c>
+      <c r="K75" t="n">
+        <v>7400</v>
+      </c>
+      <c r="L75" t="n">
+        <v>96302</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1118.360000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/建筑业/建筑业企业个数、从业人数和劳动生产率.xlsx
+++ b/data_quarter/zb/建筑业/建筑业企业个数、从业人数和劳动生产率.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,36 +464,6 @@
           <t>直接从事生产经营活动的平均人数_累计值</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>人均施工面积</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>人均竣工产值</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业人员数</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>建筑业企业单位数</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>按总产值计算的劳动生产率</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>直接从事生产经营活动的平均人数</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -519,24 +489,6 @@
       <c r="G2" t="n">
         <v>1952.86</v>
       </c>
-      <c r="H2" t="n">
-        <v>79.87</v>
-      </c>
-      <c r="I2" t="n">
-        <v>16768.98</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1988.41</v>
-      </c>
-      <c r="K2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="L2" t="n">
-        <v>40551.32</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1952.86</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -562,24 +514,6 @@
       <c r="G3" t="n">
         <v>2626.65</v>
       </c>
-      <c r="H3" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="I3" t="n">
-        <v>40292.39</v>
-      </c>
-      <c r="J3" t="n">
-        <v>364.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5641</v>
-      </c>
-      <c r="L3" t="n">
-        <v>42693.55</v>
-      </c>
-      <c r="M3" t="n">
-        <v>673.7900000000002</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -605,109 +539,55 @@
       <c r="G4" t="n">
         <v>1675.07</v>
       </c>
-      <c r="H4" t="n">
-        <v>74.81</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9724.34</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1659.54</v>
-      </c>
-      <c r="K4" t="n">
-        <v>40814</v>
-      </c>
-      <c r="L4" t="n">
-        <v>23175.25</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1675.07</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年B</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84.88</v>
+        <v>97.08</v>
       </c>
       <c r="C5" t="n">
-        <v>19293.38</v>
+        <v>34356.23</v>
       </c>
       <c r="D5" t="n">
-        <v>2136.47</v>
+        <v>2343.67</v>
       </c>
       <c r="E5" t="n">
-        <v>46088</v>
+        <v>47447</v>
       </c>
       <c r="F5" t="n">
-        <v>46378.36</v>
+        <v>70451.33</v>
       </c>
       <c r="G5" t="n">
-        <v>2177.02</v>
-      </c>
-      <c r="H5" t="n">
-        <v>10.06999999999999</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9569.040000000001</v>
-      </c>
-      <c r="J5" t="n">
-        <v>476.9299999999998</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5274</v>
-      </c>
-      <c r="L5" t="n">
-        <v>23203.11</v>
-      </c>
-      <c r="M5" t="n">
-        <v>501.95</v>
+        <v>2340.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年C</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97.08</v>
+        <v>84.88</v>
       </c>
       <c r="C6" t="n">
-        <v>34356.23</v>
+        <v>19293.38</v>
       </c>
       <c r="D6" t="n">
-        <v>2343.67</v>
+        <v>2136.47</v>
       </c>
       <c r="E6" t="n">
-        <v>47447</v>
+        <v>46088</v>
       </c>
       <c r="F6" t="n">
-        <v>70451.33</v>
+        <v>46378.36</v>
       </c>
       <c r="G6" t="n">
-        <v>2340.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15062.85</v>
-      </c>
-      <c r="J6" t="n">
-        <v>207.2000000000003</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1359</v>
-      </c>
-      <c r="L6" t="n">
-        <v>24072.97</v>
-      </c>
-      <c r="M6" t="n">
-        <v>163.1799999999998</v>
+        <v>2177.02</v>
       </c>
     </row>
     <row r="7">
@@ -734,24 +614,6 @@
       <c r="G7" t="n">
         <v>2721.77</v>
       </c>
-      <c r="H7" t="n">
-        <v>10.18000000000001</v>
-      </c>
-      <c r="I7" t="n">
-        <v>34122.01</v>
-      </c>
-      <c r="J7" t="n">
-        <v>214.1900000000001</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5862</v>
-      </c>
-      <c r="L7" t="n">
-        <v>31487.31999999999</v>
-      </c>
-      <c r="M7" t="n">
-        <v>381.5700000000002</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -777,109 +639,55 @@
       <c r="G8" t="n">
         <v>1773.76</v>
       </c>
-      <c r="H8" t="n">
-        <v>84.54000000000001</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10176.46</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1762.35</v>
-      </c>
-      <c r="K8" t="n">
-        <v>38649</v>
-      </c>
-      <c r="L8" t="n">
-        <v>25449.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1773.76</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2005年B</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>95.93000000000001</v>
+        <v>111.27</v>
       </c>
       <c r="C9" t="n">
-        <v>22194.71</v>
+        <v>38372.08</v>
       </c>
       <c r="D9" t="n">
-        <v>2226.28</v>
+        <v>2350.9</v>
       </c>
       <c r="E9" t="n">
-        <v>48698</v>
+        <v>51223</v>
       </c>
       <c r="F9" t="n">
-        <v>52594.58</v>
+        <v>81017.5</v>
       </c>
       <c r="G9" t="n">
-        <v>2292.36</v>
-      </c>
-      <c r="H9" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12018.25</v>
-      </c>
-      <c r="J9" t="n">
-        <v>463.9300000000003</v>
-      </c>
-      <c r="K9" t="n">
-        <v>10049</v>
-      </c>
-      <c r="L9" t="n">
-        <v>27145.08</v>
-      </c>
-      <c r="M9" t="n">
-        <v>518.6000000000001</v>
+        <v>2475.62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2005年C</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>111.27</v>
+        <v>95.93000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>38372.08</v>
+        <v>22194.71</v>
       </c>
       <c r="D10" t="n">
-        <v>2350.9</v>
+        <v>2226.28</v>
       </c>
       <c r="E10" t="n">
-        <v>51223</v>
+        <v>48698</v>
       </c>
       <c r="F10" t="n">
-        <v>81017.5</v>
+        <v>52594.58</v>
       </c>
       <c r="G10" t="n">
-        <v>2475.62</v>
-      </c>
-      <c r="H10" t="n">
-        <v>15.33999999999999</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16177.37</v>
-      </c>
-      <c r="J10" t="n">
-        <v>124.6199999999999</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2525</v>
-      </c>
-      <c r="L10" t="n">
-        <v>28422.92</v>
-      </c>
-      <c r="M10" t="n">
-        <v>183.2599999999998</v>
+        <v>2292.36</v>
       </c>
     </row>
     <row r="11">
@@ -906,24 +714,6 @@
       <c r="G11" t="n">
         <v>2854.5</v>
       </c>
-      <c r="H11" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="I11" t="n">
-        <v>38954.77</v>
-      </c>
-      <c r="J11" t="n">
-        <v>242.48</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4739</v>
-      </c>
-      <c r="L11" t="n">
-        <v>40705.32000000001</v>
-      </c>
-      <c r="M11" t="n">
-        <v>378.8800000000001</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -949,109 +739,55 @@
       <c r="G12" t="n">
         <v>1946.98</v>
       </c>
-      <c r="H12" t="n">
-        <v>92.11</v>
-      </c>
-      <c r="I12" t="n">
-        <v>11621.02</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1922.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>42540</v>
-      </c>
-      <c r="L12" t="n">
-        <v>28355.64</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1946.98</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2006年B</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.39</v>
+        <v>117.37</v>
       </c>
       <c r="C13" t="n">
-        <v>25453.04</v>
+        <v>42535.3</v>
       </c>
       <c r="D13" t="n">
-        <v>2407</v>
+        <v>2615.72</v>
       </c>
       <c r="E13" t="n">
-        <v>51160</v>
+        <v>53337</v>
       </c>
       <c r="F13" t="n">
-        <v>60336.51</v>
+        <v>91472.28</v>
       </c>
       <c r="G13" t="n">
-        <v>2474.64</v>
-      </c>
-      <c r="H13" t="n">
-        <v>14.28</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13832.02</v>
-      </c>
-      <c r="J13" t="n">
-        <v>484.5999999999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>8620</v>
-      </c>
-      <c r="L13" t="n">
-        <v>31980.87</v>
-      </c>
-      <c r="M13" t="n">
-        <v>527.6599999999999</v>
+        <v>2723.73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2006年C</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>117.37</v>
+        <v>106.39</v>
       </c>
       <c r="C14" t="n">
-        <v>42535.3</v>
+        <v>25453.04</v>
       </c>
       <c r="D14" t="n">
-        <v>2615.72</v>
+        <v>2407</v>
       </c>
       <c r="E14" t="n">
-        <v>53337</v>
+        <v>51160</v>
       </c>
       <c r="F14" t="n">
-        <v>91472.28</v>
+        <v>60336.51</v>
       </c>
       <c r="G14" t="n">
-        <v>2723.73</v>
-      </c>
-      <c r="H14" t="n">
-        <v>10.98</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17082.26</v>
-      </c>
-      <c r="J14" t="n">
-        <v>208.7199999999998</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2177</v>
-      </c>
-      <c r="L14" t="n">
-        <v>31135.77</v>
-      </c>
-      <c r="M14" t="n">
-        <v>249.0900000000001</v>
+        <v>2474.64</v>
       </c>
     </row>
     <row r="15">
@@ -1078,24 +814,6 @@
       <c r="G15" t="n">
         <v>3151.6</v>
       </c>
-      <c r="H15" t="n">
-        <v>9.420000000000002</v>
-      </c>
-      <c r="I15" t="n">
-        <v>40125</v>
-      </c>
-      <c r="J15" t="n">
-        <v>221.1800000000003</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3380</v>
-      </c>
-      <c r="L15" t="n">
-        <v>38542.45</v>
-      </c>
-      <c r="M15" t="n">
-        <v>427.8699999999999</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1121,109 +839,55 @@
       <c r="G16" t="n">
         <v>1999.3484</v>
       </c>
-      <c r="H16" t="n">
-        <v>108.94</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14777.44</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2010.8127</v>
-      </c>
-      <c r="K16" t="n">
-        <v>44958</v>
-      </c>
-      <c r="L16" t="n">
-        <v>33554.94</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1999.3484</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2007年B</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>117.38</v>
+        <v>132.64</v>
       </c>
       <c r="C17" t="n">
-        <v>30306.39</v>
+        <v>51624.09</v>
       </c>
       <c r="D17" t="n">
-        <v>2557.68</v>
+        <v>2772.5335</v>
       </c>
       <c r="E17" t="n">
-        <v>53657</v>
+        <v>55984</v>
       </c>
       <c r="F17" t="n">
-        <v>69468.03999999999</v>
+        <v>107223.61</v>
       </c>
       <c r="G17" t="n">
-        <v>2621.76</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8.439999999999998</v>
-      </c>
-      <c r="I17" t="n">
-        <v>15528.95</v>
-      </c>
-      <c r="J17" t="n">
-        <v>546.8672999999999</v>
-      </c>
-      <c r="K17" t="n">
-        <v>8699</v>
-      </c>
-      <c r="L17" t="n">
-        <v>35913.09999999999</v>
-      </c>
-      <c r="M17" t="n">
-        <v>622.4116000000001</v>
+        <v>2852.1927</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2007年C</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>132.64</v>
+        <v>117.38</v>
       </c>
       <c r="C18" t="n">
-        <v>51624.09</v>
+        <v>30306.39</v>
       </c>
       <c r="D18" t="n">
-        <v>2772.5335</v>
+        <v>2557.68</v>
       </c>
       <c r="E18" t="n">
-        <v>55984</v>
+        <v>53657</v>
       </c>
       <c r="F18" t="n">
-        <v>107223.61</v>
+        <v>69468.03999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>2852.1927</v>
-      </c>
-      <c r="H18" t="n">
-        <v>15.25999999999999</v>
-      </c>
-      <c r="I18" t="n">
-        <v>21317.7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>214.8535000000002</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2327</v>
-      </c>
-      <c r="L18" t="n">
-        <v>37755.57000000001</v>
-      </c>
-      <c r="M18" t="n">
-        <v>230.4326999999998</v>
+        <v>2621.76</v>
       </c>
     </row>
     <row r="19">
@@ -1250,24 +914,6 @@
       <c r="G19" t="n">
         <v>3649.9055</v>
       </c>
-      <c r="H19" t="n">
-        <v>129.67</v>
-      </c>
-      <c r="I19" t="n">
-        <v>32884.63</v>
-      </c>
-      <c r="J19" t="n">
-        <v>312.8569000000002</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3272</v>
-      </c>
-      <c r="L19" t="n">
-        <v>29817.25999999999</v>
-      </c>
-      <c r="M19" t="n">
-        <v>797.7127999999998</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1293,109 +939,55 @@
       <c r="G20" t="n">
         <v>2172.24</v>
       </c>
-      <c r="H20" t="n">
-        <v>123.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>17117</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2193.66</v>
-      </c>
-      <c r="K20" t="n">
-        <v>47688</v>
-      </c>
-      <c r="L20" t="n">
-        <v>38426</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2172.24</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年B</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>136.3</v>
+        <v>142</v>
       </c>
       <c r="C21" t="n">
-        <v>36620</v>
+        <v>56234</v>
       </c>
       <c r="D21" t="n">
-        <v>2721.07</v>
+        <v>2919.5</v>
       </c>
       <c r="E21" t="n">
-        <v>56314</v>
+        <v>58832</v>
       </c>
       <c r="F21" t="n">
-        <v>83593</v>
+        <v>122007</v>
       </c>
       <c r="G21" t="n">
-        <v>2711.29</v>
-      </c>
-      <c r="H21" t="n">
-        <v>13.20000000000002</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19503</v>
-      </c>
-      <c r="J21" t="n">
-        <v>527.4100000000003</v>
-      </c>
-      <c r="K21" t="n">
-        <v>8626</v>
-      </c>
-      <c r="L21" t="n">
-        <v>45167</v>
-      </c>
-      <c r="M21" t="n">
-        <v>539.0500000000002</v>
+        <v>3077.89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2008年C</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>142</v>
+        <v>136.3</v>
       </c>
       <c r="C22" t="n">
-        <v>56234</v>
+        <v>36620</v>
       </c>
       <c r="D22" t="n">
-        <v>2919.5</v>
+        <v>2721.07</v>
       </c>
       <c r="E22" t="n">
-        <v>58832</v>
+        <v>56314</v>
       </c>
       <c r="F22" t="n">
-        <v>122007</v>
+        <v>83593</v>
       </c>
       <c r="G22" t="n">
-        <v>3077.89</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5.699999999999989</v>
-      </c>
-      <c r="I22" t="n">
-        <v>19614</v>
-      </c>
-      <c r="J22" t="n">
-        <v>198.4299999999998</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2518</v>
-      </c>
-      <c r="L22" t="n">
-        <v>38414</v>
-      </c>
-      <c r="M22" t="n">
-        <v>366.5999999999999</v>
+        <v>2711.29</v>
       </c>
     </row>
     <row r="23">
@@ -1422,24 +1014,6 @@
       <c r="G23" t="n">
         <v>3671.48</v>
       </c>
-      <c r="H23" t="n">
-        <v>1.699999999999989</v>
-      </c>
-      <c r="I23" t="n">
-        <v>41593</v>
-      </c>
-      <c r="J23" t="n">
-        <v>334.1100000000001</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5320</v>
-      </c>
-      <c r="L23" t="n">
-        <v>44531</v>
-      </c>
-      <c r="M23" t="n">
-        <v>593.5900000000001</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1465,109 +1039,55 @@
       <c r="G24" t="n">
         <v>2306.52</v>
       </c>
-      <c r="H24" t="n">
-        <v>125.7</v>
-      </c>
-      <c r="I24" t="n">
-        <v>19279</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2307.29</v>
-      </c>
-      <c r="K24" t="n">
-        <v>52188</v>
-      </c>
-      <c r="L24" t="n">
-        <v>43861</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2306.52</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年B</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.2</v>
+        <v>141.1</v>
       </c>
       <c r="C25" t="n">
-        <v>40954</v>
+        <v>63707</v>
       </c>
       <c r="D25" t="n">
-        <v>2853.6</v>
+        <v>3162.7</v>
       </c>
       <c r="E25" t="n">
-        <v>61215</v>
+        <v>63891</v>
       </c>
       <c r="F25" t="n">
-        <v>94809</v>
+        <v>139912</v>
       </c>
       <c r="G25" t="n">
-        <v>2900.8</v>
-      </c>
-      <c r="H25" t="n">
-        <v>6.499999999999986</v>
-      </c>
-      <c r="I25" t="n">
-        <v>21675</v>
-      </c>
-      <c r="J25" t="n">
-        <v>546.3099999999999</v>
-      </c>
-      <c r="K25" t="n">
-        <v>9027</v>
-      </c>
-      <c r="L25" t="n">
-        <v>50948</v>
-      </c>
-      <c r="M25" t="n">
-        <v>594.2800000000002</v>
+        <v>3324.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2009年C</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.1</v>
+        <v>132.2</v>
       </c>
       <c r="C26" t="n">
-        <v>63707</v>
+        <v>40954</v>
       </c>
       <c r="D26" t="n">
-        <v>3162.7</v>
+        <v>2853.6</v>
       </c>
       <c r="E26" t="n">
-        <v>63891</v>
+        <v>61215</v>
       </c>
       <c r="F26" t="n">
-        <v>139912</v>
+        <v>94809</v>
       </c>
       <c r="G26" t="n">
-        <v>3324.8</v>
-      </c>
-      <c r="H26" t="n">
-        <v>8.900000000000006</v>
-      </c>
-      <c r="I26" t="n">
-        <v>22753</v>
-      </c>
-      <c r="J26" t="n">
-        <v>309.0999999999999</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2676</v>
-      </c>
-      <c r="L26" t="n">
-        <v>45103</v>
-      </c>
-      <c r="M26" t="n">
-        <v>424</v>
+        <v>2900.8</v>
       </c>
     </row>
     <row r="27">
@@ -1594,24 +1114,6 @@
       <c r="G27" t="n">
         <v>4153.6</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.3000000000000114</v>
-      </c>
-      <c r="I27" t="n">
-        <v>41739</v>
-      </c>
-      <c r="J27" t="n">
-        <v>434.7000000000003</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4392</v>
-      </c>
-      <c r="L27" t="n">
-        <v>42735</v>
-      </c>
-      <c r="M27" t="n">
-        <v>828.8000000000002</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1637,109 +1139,55 @@
       <c r="G28" t="n">
         <v>2579.1</v>
       </c>
-      <c r="H28" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="I28" t="n">
-        <v>21803</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2581.3</v>
-      </c>
-      <c r="K28" t="n">
-        <v>55757</v>
-      </c>
-      <c r="L28" t="n">
-        <v>49268</v>
-      </c>
-      <c r="M28" t="n">
-        <v>2579.1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2010年B</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>139.5</v>
+        <v>148.1</v>
       </c>
       <c r="C29" t="n">
-        <v>45208</v>
+        <v>68139</v>
       </c>
       <c r="D29" t="n">
-        <v>3211.1</v>
+        <v>3615.53</v>
       </c>
       <c r="E29" t="n">
-        <v>64184</v>
+        <v>66742</v>
       </c>
       <c r="F29" t="n">
-        <v>104917</v>
+        <v>152591</v>
       </c>
       <c r="G29" t="n">
-        <v>3259.1</v>
-      </c>
-      <c r="H29" t="n">
-        <v>10.09999999999999</v>
-      </c>
-      <c r="I29" t="n">
-        <v>23405</v>
-      </c>
-      <c r="J29" t="n">
-        <v>629.7999999999997</v>
-      </c>
-      <c r="K29" t="n">
-        <v>8427</v>
-      </c>
-      <c r="L29" t="n">
-        <v>55649</v>
-      </c>
-      <c r="M29" t="n">
-        <v>680</v>
+        <v>3776.53</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2010年C</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>148.1</v>
+        <v>139.5</v>
       </c>
       <c r="C30" t="n">
-        <v>68139</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="n">
-        <v>3615.53</v>
+        <v>3211.1</v>
       </c>
       <c r="E30" t="n">
-        <v>66742</v>
+        <v>64184</v>
       </c>
       <c r="F30" t="n">
-        <v>152591</v>
+        <v>104917</v>
       </c>
       <c r="G30" t="n">
-        <v>3776.53</v>
-      </c>
-      <c r="H30" t="n">
-        <v>8.599999999999994</v>
-      </c>
-      <c r="I30" t="n">
-        <v>22931</v>
-      </c>
-      <c r="J30" t="n">
-        <v>404.4300000000003</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2558</v>
-      </c>
-      <c r="L30" t="n">
-        <v>47674</v>
-      </c>
-      <c r="M30" t="n">
-        <v>517.4300000000003</v>
+        <v>3259.1</v>
       </c>
     </row>
     <row r="31">
@@ -1766,24 +1214,6 @@
       <c r="G31" t="n">
         <v>4624.27</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.400000000000006</v>
-      </c>
-      <c r="I31" t="n">
-        <v>46432</v>
-      </c>
-      <c r="J31" t="n">
-        <v>427.8399999999997</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3319</v>
-      </c>
-      <c r="L31" t="n">
-        <v>53292</v>
-      </c>
-      <c r="M31" t="n">
-        <v>847.7400000000002</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1809,109 +1239,55 @@
       <c r="G32" t="n">
         <v>2933.26</v>
       </c>
-      <c r="H32" t="n">
-        <v>145.8</v>
-      </c>
-      <c r="I32" t="n">
-        <v>23378</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2889.3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>57746</v>
-      </c>
-      <c r="L32" t="n">
-        <v>54875</v>
-      </c>
-      <c r="M32" t="n">
-        <v>2933.26</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2011年B</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>157.5</v>
+        <v>163.6</v>
       </c>
       <c r="C33" t="n">
-        <v>48141</v>
+        <v>73058</v>
       </c>
       <c r="D33" t="n">
-        <v>3666.72</v>
+        <v>3930.92</v>
       </c>
       <c r="E33" t="n">
-        <v>65743</v>
+        <v>68060</v>
       </c>
       <c r="F33" t="n">
-        <v>119004</v>
+        <v>171012</v>
       </c>
       <c r="G33" t="n">
-        <v>3622.63</v>
-      </c>
-      <c r="H33" t="n">
-        <v>11.69999999999999</v>
-      </c>
-      <c r="I33" t="n">
-        <v>24763</v>
-      </c>
-      <c r="J33" t="n">
-        <v>777.4199999999996</v>
-      </c>
-      <c r="K33" t="n">
-        <v>7997</v>
-      </c>
-      <c r="L33" t="n">
-        <v>64129</v>
-      </c>
-      <c r="M33" t="n">
-        <v>689.3699999999999</v>
+        <v>4237.47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2011年C</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.6</v>
+        <v>157.5</v>
       </c>
       <c r="C34" t="n">
-        <v>73058</v>
+        <v>48141</v>
       </c>
       <c r="D34" t="n">
-        <v>3930.92</v>
+        <v>3666.72</v>
       </c>
       <c r="E34" t="n">
-        <v>68060</v>
+        <v>65743</v>
       </c>
       <c r="F34" t="n">
-        <v>171012</v>
+        <v>119004</v>
       </c>
       <c r="G34" t="n">
-        <v>4237.47</v>
-      </c>
-      <c r="H34" t="n">
-        <v>6.099999999999994</v>
-      </c>
-      <c r="I34" t="n">
-        <v>24917</v>
-      </c>
-      <c r="J34" t="n">
-        <v>264.2000000000003</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2317</v>
-      </c>
-      <c r="L34" t="n">
-        <v>52008</v>
-      </c>
-      <c r="M34" t="n">
-        <v>614.8400000000001</v>
+        <v>3622.63</v>
       </c>
     </row>
     <row r="35">
@@ -1938,24 +1314,6 @@
       <c r="G35" t="n">
         <v>5136.29</v>
       </c>
-      <c r="H35" t="n">
-        <v>1.200000000000017</v>
-      </c>
-      <c r="I35" t="n">
-        <v>47699</v>
-      </c>
-      <c r="J35" t="n">
-        <v>380.1499999999996</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2354</v>
-      </c>
-      <c r="L35" t="n">
-        <v>58208</v>
-      </c>
-      <c r="M35" t="n">
-        <v>898.8199999999997</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1981,109 +1339,55 @@
       <c r="G36" t="n">
         <v>2935.36</v>
       </c>
-      <c r="H36" t="n">
-        <v>12.39999999999998</v>
-      </c>
-      <c r="I36" t="n">
-        <v>28286</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2767.82</v>
-      </c>
-      <c r="K36" t="n">
-        <v>60600</v>
-      </c>
-      <c r="L36" t="n">
-        <v>64151</v>
-      </c>
-      <c r="M36" t="n">
-        <v>2935.36</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>197</v>
+        <v>202.3</v>
       </c>
       <c r="C37" t="n">
-        <v>61630</v>
+        <v>93595</v>
       </c>
       <c r="D37" t="n">
-        <v>3238.02</v>
+        <v>3661.48</v>
       </c>
       <c r="E37" t="n">
-        <v>68529</v>
+        <v>71000</v>
       </c>
       <c r="F37" t="n">
-        <v>145782</v>
+        <v>211841</v>
       </c>
       <c r="G37" t="n">
-        <v>3461.31</v>
-      </c>
-      <c r="H37" t="n">
-        <v>19.80000000000001</v>
-      </c>
-      <c r="I37" t="n">
-        <v>33344</v>
-      </c>
-      <c r="J37" t="n">
-        <v>470.1999999999998</v>
-      </c>
-      <c r="K37" t="n">
-        <v>7929</v>
-      </c>
-      <c r="L37" t="n">
-        <v>81631</v>
-      </c>
-      <c r="M37" t="n">
-        <v>525.9499999999998</v>
+        <v>4023.93</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>202.3</v>
+        <v>197</v>
       </c>
       <c r="C38" t="n">
-        <v>93595</v>
+        <v>61630</v>
       </c>
       <c r="D38" t="n">
-        <v>3661.48</v>
+        <v>3238.02</v>
       </c>
       <c r="E38" t="n">
-        <v>71000</v>
+        <v>68529</v>
       </c>
       <c r="F38" t="n">
-        <v>211841</v>
+        <v>145782</v>
       </c>
       <c r="G38" t="n">
-        <v>4023.93</v>
-      </c>
-      <c r="H38" t="n">
-        <v>5.300000000000011</v>
-      </c>
-      <c r="I38" t="n">
-        <v>31965</v>
-      </c>
-      <c r="J38" t="n">
-        <v>423.46</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2471</v>
-      </c>
-      <c r="L38" t="n">
-        <v>66059</v>
-      </c>
-      <c r="M38" t="n">
-        <v>562.6199999999999</v>
+        <v>3461.31</v>
       </c>
     </row>
     <row r="39">
@@ -2110,24 +1414,6 @@
       <c r="G39" t="n">
         <v>5051.27</v>
       </c>
-      <c r="H39" t="n">
-        <v>194.3</v>
-      </c>
-      <c r="I39" t="n">
-        <v>55880</v>
-      </c>
-      <c r="J39" t="n">
-        <v>519.3600000000001</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3042</v>
-      </c>
-      <c r="L39" t="n">
-        <v>56019</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1027.340000000001</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2153,109 +1439,55 @@
       <c r="G40" t="n">
         <v>3026.26</v>
       </c>
-      <c r="H40" t="n">
-        <v>5.599999999999994</v>
-      </c>
-      <c r="I40" t="n">
-        <v>34444</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3221.28</v>
-      </c>
-      <c r="K40" t="n">
-        <v>64162</v>
-      </c>
-      <c r="L40" t="n">
-        <v>74791</v>
-      </c>
-      <c r="M40" t="n">
-        <v>3026.26</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>209.9</v>
+        <v>220.5</v>
       </c>
       <c r="C41" t="n">
-        <v>71099</v>
+        <v>108402</v>
       </c>
       <c r="D41" t="n">
-        <v>3799.04</v>
+        <v>4078.88</v>
       </c>
       <c r="E41" t="n">
-        <v>72050</v>
+        <v>74432</v>
       </c>
       <c r="F41" t="n">
-        <v>160766</v>
+        <v>240089</v>
       </c>
       <c r="G41" t="n">
-        <v>3743.14</v>
-      </c>
-      <c r="H41" t="n">
-        <v>10</v>
-      </c>
-      <c r="I41" t="n">
-        <v>36655</v>
-      </c>
-      <c r="J41" t="n">
-        <v>577.7599999999998</v>
-      </c>
-      <c r="K41" t="n">
-        <v>7888</v>
-      </c>
-      <c r="L41" t="n">
-        <v>85975</v>
-      </c>
-      <c r="M41" t="n">
-        <v>716.8799999999997</v>
+        <v>4227.52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>220.5</v>
+        <v>209.9</v>
       </c>
       <c r="C42" t="n">
-        <v>108402</v>
+        <v>71099</v>
       </c>
       <c r="D42" t="n">
-        <v>4078.88</v>
+        <v>3799.04</v>
       </c>
       <c r="E42" t="n">
-        <v>74432</v>
+        <v>72050</v>
       </c>
       <c r="F42" t="n">
-        <v>240089</v>
+        <v>160766</v>
       </c>
       <c r="G42" t="n">
-        <v>4227.52</v>
-      </c>
-      <c r="H42" t="n">
-        <v>10.59999999999999</v>
-      </c>
-      <c r="I42" t="n">
-        <v>37303</v>
-      </c>
-      <c r="J42" t="n">
-        <v>279.8400000000001</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2382</v>
-      </c>
-      <c r="L42" t="n">
-        <v>79323</v>
-      </c>
-      <c r="M42" t="n">
-        <v>484.3800000000006</v>
+        <v>3743.14</v>
       </c>
     </row>
     <row r="43">
@@ -2282,24 +1514,6 @@
       <c r="G43" t="n">
         <v>4904.32</v>
       </c>
-      <c r="H43" t="n">
-        <v>9.900000000000006</v>
-      </c>
-      <c r="I43" t="n">
-        <v>75515</v>
-      </c>
-      <c r="J43" t="n">
-        <v>420.4300000000003</v>
-      </c>
-      <c r="K43" t="n">
-        <v>5096</v>
-      </c>
-      <c r="L43" t="n">
-        <v>84753</v>
-      </c>
-      <c r="M43" t="n">
-        <v>676.7999999999993</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2325,109 +1539,55 @@
       <c r="G44" t="n">
         <v>3665.55</v>
       </c>
-      <c r="H44" t="n">
-        <v>190.7</v>
-      </c>
-      <c r="I44" t="n">
-        <v>32999</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3418.95</v>
-      </c>
-      <c r="K44" t="n">
-        <v>68332</v>
-      </c>
-      <c r="L44" t="n">
-        <v>71580</v>
-      </c>
-      <c r="M44" t="n">
-        <v>3665.55</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>197.5</v>
+        <v>215.8</v>
       </c>
       <c r="C45" t="n">
-        <v>68134</v>
+        <v>107819</v>
       </c>
       <c r="D45" t="n">
-        <v>3934.89</v>
+        <v>4191.69</v>
       </c>
       <c r="E45" t="n">
-        <v>75242</v>
+        <v>77818</v>
       </c>
       <c r="F45" t="n">
-        <v>153755</v>
+        <v>237642</v>
       </c>
       <c r="G45" t="n">
-        <v>4513.64</v>
-      </c>
-      <c r="H45" t="n">
-        <v>6.800000000000011</v>
-      </c>
-      <c r="I45" t="n">
-        <v>35135</v>
-      </c>
-      <c r="J45" t="n">
-        <v>515.9400000000001</v>
-      </c>
-      <c r="K45" t="n">
-        <v>6910</v>
-      </c>
-      <c r="L45" t="n">
-        <v>82175</v>
-      </c>
-      <c r="M45" t="n">
-        <v>848.0900000000001</v>
+        <v>4849.64</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>215.8</v>
+        <v>197.5</v>
       </c>
       <c r="C46" t="n">
-        <v>107819</v>
+        <v>68134</v>
       </c>
       <c r="D46" t="n">
-        <v>4191.69</v>
+        <v>3934.89</v>
       </c>
       <c r="E46" t="n">
-        <v>77818</v>
+        <v>75242</v>
       </c>
       <c r="F46" t="n">
-        <v>237642</v>
+        <v>153755</v>
       </c>
       <c r="G46" t="n">
-        <v>4849.64</v>
-      </c>
-      <c r="H46" t="n">
-        <v>18.30000000000001</v>
-      </c>
-      <c r="I46" t="n">
-        <v>39685</v>
-      </c>
-      <c r="J46" t="n">
-        <v>256.7999999999997</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2576</v>
-      </c>
-      <c r="L46" t="n">
-        <v>83887</v>
-      </c>
-      <c r="M46" t="n">
-        <v>336</v>
+        <v>4513.64</v>
       </c>
     </row>
     <row r="47">
@@ -2454,24 +1614,6 @@
       <c r="G47" t="n">
         <v>5516</v>
       </c>
-      <c r="H47" t="n">
-        <v>10.89999999999998</v>
-      </c>
-      <c r="I47" t="n">
-        <v>74776.89999999999</v>
-      </c>
-      <c r="J47" t="n">
-        <v>768.9100000000008</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3323</v>
-      </c>
-      <c r="L47" t="n">
-        <v>82724.29999999999</v>
-      </c>
-      <c r="M47" t="n">
-        <v>666.3599999999997</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2497,109 +1639,55 @@
       <c r="G48" t="n">
         <v>3622.74</v>
       </c>
-      <c r="H48" t="n">
-        <v>207.5</v>
-      </c>
-      <c r="I48" t="n">
-        <v>39423</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3573.64</v>
-      </c>
-      <c r="K48" t="n">
-        <v>68479</v>
-      </c>
-      <c r="L48" t="n">
-        <v>79761</v>
-      </c>
-      <c r="M48" t="n">
-        <v>3622.74</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>219.1</v>
+        <v>226.1</v>
       </c>
       <c r="C49" t="n">
-        <v>82151</v>
+        <v>124541</v>
       </c>
       <c r="D49" t="n">
-        <v>4068.05</v>
+        <v>4457.99</v>
       </c>
       <c r="E49" t="n">
-        <v>75582</v>
+        <v>77798</v>
       </c>
       <c r="F49" t="n">
-        <v>172512</v>
+        <v>251440</v>
       </c>
       <c r="G49" t="n">
-        <v>4195.33</v>
-      </c>
-      <c r="H49" t="n">
-        <v>11.59999999999999</v>
-      </c>
-      <c r="I49" t="n">
-        <v>42728</v>
-      </c>
-      <c r="J49" t="n">
-        <v>494.4100000000003</v>
-      </c>
-      <c r="K49" t="n">
-        <v>7103</v>
-      </c>
-      <c r="L49" t="n">
-        <v>92751</v>
-      </c>
-      <c r="M49" t="n">
-        <v>572.5900000000001</v>
+        <v>4690.86</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>226.1</v>
+        <v>219.1</v>
       </c>
       <c r="C50" t="n">
-        <v>124541</v>
+        <v>82151</v>
       </c>
       <c r="D50" t="n">
-        <v>4457.99</v>
+        <v>4068.05</v>
       </c>
       <c r="E50" t="n">
-        <v>77798</v>
+        <v>75582</v>
       </c>
       <c r="F50" t="n">
-        <v>251440</v>
+        <v>172512</v>
       </c>
       <c r="G50" t="n">
-        <v>4690.86</v>
-      </c>
-      <c r="H50" t="n">
-        <v>7</v>
-      </c>
-      <c r="I50" t="n">
-        <v>42390</v>
-      </c>
-      <c r="J50" t="n">
-        <v>389.9399999999996</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2216</v>
-      </c>
-      <c r="L50" t="n">
-        <v>78928</v>
-      </c>
-      <c r="M50" t="n">
-        <v>495.5299999999997</v>
+        <v>4195.33</v>
       </c>
     </row>
     <row r="51">
@@ -2626,24 +1714,6 @@
       <c r="G51" t="n">
         <v>5583.5</v>
       </c>
-      <c r="H51" t="n">
-        <v>222.5</v>
-      </c>
-      <c r="I51" t="n">
-        <v>72675</v>
-      </c>
-      <c r="J51" t="n">
-        <v>545.4099999999999</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3113</v>
-      </c>
-      <c r="L51" t="n">
-        <v>72293</v>
-      </c>
-      <c r="M51" t="n">
-        <v>892.6400000000003</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2669,109 +1739,55 @@
       <c r="G52" t="n">
         <v>3674.43</v>
       </c>
-      <c r="H52" t="n">
-        <v>205.1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>43211</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3632.19</v>
-      </c>
-      <c r="K52" t="n">
-        <v>69925</v>
-      </c>
-      <c r="L52" t="n">
-        <v>83958</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3674.43</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016年B</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>216.2</v>
+        <v>226.8</v>
       </c>
       <c r="C53" t="n">
-        <v>86220</v>
+        <v>128063</v>
       </c>
       <c r="D53" t="n">
-        <v>4204.41</v>
+        <v>4485.07999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>77058</v>
+        <v>80147</v>
       </c>
       <c r="F53" t="n">
-        <v>178661</v>
+        <v>264657</v>
       </c>
       <c r="G53" t="n">
-        <v>4335.69</v>
-      </c>
-      <c r="H53" t="n">
-        <v>11.09999999999999</v>
-      </c>
-      <c r="I53" t="n">
-        <v>43009</v>
-      </c>
-      <c r="J53" t="n">
-        <v>572.2199999999998</v>
-      </c>
-      <c r="K53" t="n">
-        <v>7133</v>
-      </c>
-      <c r="L53" t="n">
-        <v>94703</v>
-      </c>
-      <c r="M53" t="n">
-        <v>661.2599999999998</v>
+        <v>4753.01</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2016年C</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>226.8</v>
+        <v>216.2</v>
       </c>
       <c r="C54" t="n">
-        <v>128063</v>
+        <v>86220</v>
       </c>
       <c r="D54" t="n">
-        <v>4485.07999999999</v>
+        <v>4204.41</v>
       </c>
       <c r="E54" t="n">
-        <v>80147</v>
+        <v>77058</v>
       </c>
       <c r="F54" t="n">
-        <v>264657</v>
+        <v>178661</v>
       </c>
       <c r="G54" t="n">
-        <v>4753.01</v>
-      </c>
-      <c r="H54" t="n">
-        <v>10.60000000000002</v>
-      </c>
-      <c r="I54" t="n">
-        <v>41843</v>
-      </c>
-      <c r="J54" t="n">
-        <v>280.6699999999901</v>
-      </c>
-      <c r="K54" t="n">
-        <v>3089</v>
-      </c>
-      <c r="L54" t="n">
-        <v>85996</v>
-      </c>
-      <c r="M54" t="n">
-        <v>417.3200000000006</v>
+        <v>4335.69</v>
       </c>
     </row>
     <row r="55">
@@ -2798,24 +1814,6 @@
       <c r="G55" t="n">
         <v>5757.02</v>
       </c>
-      <c r="H55" t="n">
-        <v>219.6</v>
-      </c>
-      <c r="I55" t="n">
-        <v>68032</v>
-      </c>
-      <c r="J55" t="n">
-        <v>700.1600000000099</v>
-      </c>
-      <c r="K55" t="n">
-        <v>2870</v>
-      </c>
-      <c r="L55" t="n">
-        <v>71570</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1004.01</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2841,109 +1839,55 @@
       <c r="G56" t="n">
         <v>3854.86</v>
       </c>
-      <c r="H56" t="n">
-        <v>200.3</v>
-      </c>
-      <c r="I56" t="n">
-        <v>43577</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3749.18</v>
-      </c>
-      <c r="K56" t="n">
-        <v>72726</v>
-      </c>
-      <c r="L56" t="n">
-        <v>88690</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3854.86</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2017年B</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>216.3</v>
+        <v>225.7</v>
       </c>
       <c r="C57" t="n">
-        <v>87398</v>
+        <v>128736</v>
       </c>
       <c r="D57" t="n">
-        <v>4339.09</v>
+        <v>4698.73</v>
       </c>
       <c r="E57" t="n">
-        <v>80611</v>
+        <v>84185</v>
       </c>
       <c r="F57" t="n">
-        <v>191491</v>
+        <v>278577</v>
       </c>
       <c r="G57" t="n">
-        <v>4484.34</v>
-      </c>
-      <c r="H57" t="n">
-        <v>16</v>
-      </c>
-      <c r="I57" t="n">
-        <v>43821</v>
-      </c>
-      <c r="J57" t="n">
-        <v>589.9100000000003</v>
-      </c>
-      <c r="K57" t="n">
-        <v>7885</v>
-      </c>
-      <c r="L57" t="n">
-        <v>102801</v>
-      </c>
-      <c r="M57" t="n">
-        <v>629.48</v>
+        <v>4998.98</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2017年C</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>225.7</v>
+        <v>216.3</v>
       </c>
       <c r="C58" t="n">
-        <v>128736</v>
+        <v>87398</v>
       </c>
       <c r="D58" t="n">
-        <v>4698.73</v>
+        <v>4339.09</v>
       </c>
       <c r="E58" t="n">
-        <v>84185</v>
+        <v>80611</v>
       </c>
       <c r="F58" t="n">
-        <v>278577</v>
+        <v>191491</v>
       </c>
       <c r="G58" t="n">
-        <v>4998.98</v>
-      </c>
-      <c r="H58" t="n">
-        <v>9.399999999999977</v>
-      </c>
-      <c r="I58" t="n">
-        <v>41338</v>
-      </c>
-      <c r="J58" t="n">
-        <v>359.6399999999994</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3574</v>
-      </c>
-      <c r="L58" t="n">
-        <v>87086</v>
-      </c>
-      <c r="M58" t="n">
-        <v>514.6399999999994</v>
+        <v>4484.34</v>
       </c>
     </row>
     <row r="59">
@@ -2970,24 +1914,6 @@
       <c r="G59" t="n">
         <v>6157.61</v>
       </c>
-      <c r="H59" t="n">
-        <v>213.9</v>
-      </c>
-      <c r="I59" t="n">
-        <v>60935</v>
-      </c>
-      <c r="J59" t="n">
-        <v>838.1700000000001</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3874</v>
-      </c>
-      <c r="L59" t="n">
-        <v>68885</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1158.63</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -3013,109 +1939,55 @@
       <c r="G60" t="n">
         <v>4103.01</v>
       </c>
-      <c r="H60" t="n">
-        <v>199.8</v>
-      </c>
-      <c r="I60" t="n">
-        <v>45068</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3934.85</v>
-      </c>
-      <c r="K60" t="n">
-        <v>77822</v>
-      </c>
-      <c r="L60" t="n">
-        <v>94301</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4103.01</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2018年B</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>225.1</v>
+        <v>232.1</v>
       </c>
       <c r="C61" t="n">
-        <v>86389</v>
+        <v>127660</v>
       </c>
       <c r="D61" t="n">
-        <v>4419.24</v>
+        <v>4769.95</v>
       </c>
       <c r="E61" t="n">
-        <v>85993</v>
+        <v>90215</v>
       </c>
       <c r="F61" t="n">
-        <v>203868</v>
+        <v>296514</v>
       </c>
       <c r="G61" t="n">
-        <v>4649.6</v>
-      </c>
-      <c r="H61" t="n">
-        <v>25.29999999999998</v>
-      </c>
-      <c r="I61" t="n">
-        <v>41321</v>
-      </c>
-      <c r="J61" t="n">
-        <v>484.3899999999999</v>
-      </c>
-      <c r="K61" t="n">
-        <v>8171</v>
-      </c>
-      <c r="L61" t="n">
-        <v>109567</v>
-      </c>
-      <c r="M61" t="n">
-        <v>546.5900000000001</v>
+        <v>5137.24</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2018年C</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>232.1</v>
+        <v>225.1</v>
       </c>
       <c r="C62" t="n">
-        <v>127660</v>
+        <v>86389</v>
       </c>
       <c r="D62" t="n">
-        <v>4769.95</v>
+        <v>4419.24</v>
       </c>
       <c r="E62" t="n">
-        <v>90215</v>
+        <v>85993</v>
       </c>
       <c r="F62" t="n">
-        <v>296514</v>
+        <v>203868</v>
       </c>
       <c r="G62" t="n">
-        <v>5137.24</v>
-      </c>
-      <c r="H62" t="n">
-        <v>7</v>
-      </c>
-      <c r="I62" t="n">
-        <v>41271</v>
-      </c>
-      <c r="J62" t="n">
-        <v>350.71</v>
-      </c>
-      <c r="K62" t="n">
-        <v>4222</v>
-      </c>
-      <c r="L62" t="n">
-        <v>92646</v>
-      </c>
-      <c r="M62" t="n">
-        <v>487.6399999999994</v>
+        <v>4649.6</v>
       </c>
     </row>
     <row r="63">
@@ -3142,24 +2014,6 @@
       <c r="G63" t="n">
         <v>6299.4</v>
       </c>
-      <c r="H63" t="n">
-        <v>223.7</v>
-      </c>
-      <c r="I63" t="n">
-        <v>64082</v>
-      </c>
-      <c r="J63" t="n">
-        <v>793.3500000000004</v>
-      </c>
-      <c r="K63" t="n">
-        <v>5185</v>
-      </c>
-      <c r="L63" t="n">
-        <v>76673</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1162.16</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -3185,109 +2039,55 @@
       <c r="G64" t="n">
         <v>4091.15</v>
       </c>
-      <c r="H64" t="n">
-        <v>217.9</v>
-      </c>
-      <c r="I64" t="n">
-        <v>46110</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3894.05</v>
-      </c>
-      <c r="K64" t="n">
-        <v>84530</v>
-      </c>
-      <c r="L64" t="n">
-        <v>104514</v>
-      </c>
-      <c r="M64" t="n">
-        <v>4091.15</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2019年B</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>234.2</v>
+        <v>240.3</v>
       </c>
       <c r="C65" t="n">
-        <v>89915</v>
+        <v>130826</v>
       </c>
       <c r="D65" t="n">
-        <v>4309.83</v>
+        <v>4679.25</v>
       </c>
       <c r="E65" t="n">
-        <v>92733</v>
+        <v>97378</v>
       </c>
       <c r="F65" t="n">
-        <v>221424</v>
+        <v>316100</v>
       </c>
       <c r="G65" t="n">
-        <v>4589.2</v>
-      </c>
-      <c r="H65" t="n">
-        <v>16.29999999999998</v>
-      </c>
-      <c r="I65" t="n">
-        <v>43805</v>
-      </c>
-      <c r="J65" t="n">
-        <v>415.7799999999997</v>
-      </c>
-      <c r="K65" t="n">
-        <v>8203</v>
-      </c>
-      <c r="L65" t="n">
-        <v>116910</v>
-      </c>
-      <c r="M65" t="n">
-        <v>498.0499999999997</v>
+        <v>5139.75</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2019年C</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>240.3</v>
+        <v>234.2</v>
       </c>
       <c r="C66" t="n">
-        <v>130826</v>
+        <v>89915</v>
       </c>
       <c r="D66" t="n">
-        <v>4679.25</v>
+        <v>4309.83</v>
       </c>
       <c r="E66" t="n">
-        <v>97378</v>
+        <v>92733</v>
       </c>
       <c r="F66" t="n">
-        <v>316100</v>
+        <v>221424</v>
       </c>
       <c r="G66" t="n">
-        <v>5139.75</v>
-      </c>
-      <c r="H66" t="n">
-        <v>6.100000000000023</v>
-      </c>
-      <c r="I66" t="n">
-        <v>40911</v>
-      </c>
-      <c r="J66" t="n">
-        <v>369.4200000000001</v>
-      </c>
-      <c r="K66" t="n">
-        <v>4645</v>
-      </c>
-      <c r="L66" t="n">
-        <v>94676</v>
-      </c>
-      <c r="M66" t="n">
-        <v>550.5500000000002</v>
+        <v>4589.2</v>
       </c>
     </row>
     <row r="67">
@@ -3314,24 +2114,6 @@
       <c r="G67" t="n">
         <v>6216.49</v>
       </c>
-      <c r="H67" t="n">
-        <v>231.9</v>
-      </c>
-      <c r="I67" t="n">
-        <v>68377</v>
-      </c>
-      <c r="J67" t="n">
-        <v>748.1199999999999</v>
-      </c>
-      <c r="K67" t="n">
-        <v>6436</v>
-      </c>
-      <c r="L67" t="n">
-        <v>83556</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1076.74</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -3357,109 +2139,55 @@
       <c r="G68" t="n">
         <v>3480.39</v>
       </c>
-      <c r="H68" t="n">
-        <v>24.79999999999998</v>
-      </c>
-      <c r="I68" t="n">
-        <v>41789</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3322.89</v>
-      </c>
-      <c r="K68" t="n">
-        <v>89462</v>
-      </c>
-      <c r="L68" t="n">
-        <v>103197</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3480.39</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2020年B</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>257.8</v>
+        <v>250.7</v>
       </c>
       <c r="C69" t="n">
-        <v>87497</v>
+        <v>127725</v>
       </c>
       <c r="D69" t="n">
-        <v>4120.9</v>
+        <v>4550.29</v>
       </c>
       <c r="E69" t="n">
-        <v>102712</v>
+        <v>108321</v>
       </c>
       <c r="F69" t="n">
-        <v>232019</v>
+        <v>338016</v>
       </c>
       <c r="G69" t="n">
-        <v>4346.19</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1.100000000000023</v>
-      </c>
-      <c r="I69" t="n">
-        <v>45708</v>
-      </c>
-      <c r="J69" t="n">
-        <v>798.0099999999998</v>
-      </c>
-      <c r="K69" t="n">
-        <v>13250</v>
-      </c>
-      <c r="L69" t="n">
-        <v>128822</v>
-      </c>
-      <c r="M69" t="n">
-        <v>865.7999999999997</v>
+        <v>4968.03</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2020年C</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>250.7</v>
+        <v>257.8</v>
       </c>
       <c r="C70" t="n">
-        <v>127725</v>
+        <v>87497</v>
       </c>
       <c r="D70" t="n">
-        <v>4550.29</v>
+        <v>4120.9</v>
       </c>
       <c r="E70" t="n">
-        <v>108321</v>
+        <v>102712</v>
       </c>
       <c r="F70" t="n">
-        <v>338016</v>
+        <v>232019</v>
       </c>
       <c r="G70" t="n">
-        <v>4968.03</v>
-      </c>
-      <c r="H70" t="n">
-        <v>250.7</v>
-      </c>
-      <c r="I70" t="n">
-        <v>40228</v>
-      </c>
-      <c r="J70" t="n">
-        <v>429.3900000000003</v>
-      </c>
-      <c r="K70" t="n">
-        <v>5609</v>
-      </c>
-      <c r="L70" t="n">
-        <v>105997</v>
-      </c>
-      <c r="M70" t="n">
-        <v>621.8400000000001</v>
+        <v>4346.19</v>
       </c>
     </row>
     <row r="71">
@@ -3486,24 +2214,6 @@
       <c r="G71" t="n">
         <v>6241.27</v>
       </c>
-      <c r="H71" t="n">
-        <v>239.5</v>
-      </c>
-      <c r="I71" t="n">
-        <v>67999</v>
-      </c>
-      <c r="J71" t="n">
-        <v>816.6300000000001</v>
-      </c>
-      <c r="K71" t="n">
-        <v>8395</v>
-      </c>
-      <c r="L71" t="n">
-        <v>84890</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1273.240000000001</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -3529,109 +2239,55 @@
       <c r="G72" t="n">
         <v>3851.21</v>
       </c>
-      <c r="H72" t="n">
-        <v>13.40000000000001</v>
-      </c>
-      <c r="I72" t="n">
-        <v>49833</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3584.3</v>
-      </c>
-      <c r="K72" t="n">
-        <v>104204</v>
-      </c>
-      <c r="L72" t="n">
-        <v>122905</v>
-      </c>
-      <c r="M72" t="n">
-        <v>3851.21</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年B</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C73" t="n">
-        <v>96997</v>
+        <v>142553</v>
       </c>
       <c r="D73" t="n">
-        <v>4172.34</v>
+        <v>4483.87</v>
       </c>
       <c r="E73" t="n">
-        <v>115066</v>
+        <v>121346</v>
       </c>
       <c r="F73" t="n">
-        <v>262199</v>
+        <v>376889</v>
       </c>
       <c r="G73" t="n">
-        <v>4570.72</v>
-      </c>
-      <c r="H73" t="n">
-        <v>8.099999999999994</v>
-      </c>
-      <c r="I73" t="n">
-        <v>47164</v>
-      </c>
-      <c r="J73" t="n">
-        <v>588.04</v>
-      </c>
-      <c r="K73" t="n">
-        <v>10862</v>
-      </c>
-      <c r="L73" t="n">
-        <v>139294</v>
-      </c>
-      <c r="M73" t="n">
-        <v>719.5100000000002</v>
+        <v>5075.32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2021年C</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C74" t="n">
-        <v>142553</v>
+        <v>96997</v>
       </c>
       <c r="D74" t="n">
-        <v>4483.87</v>
+        <v>4172.34</v>
       </c>
       <c r="E74" t="n">
-        <v>121346</v>
+        <v>115066</v>
       </c>
       <c r="F74" t="n">
-        <v>376889</v>
+        <v>262199</v>
       </c>
       <c r="G74" t="n">
-        <v>5075.32</v>
-      </c>
-      <c r="H74" t="n">
-        <v>5</v>
-      </c>
-      <c r="I74" t="n">
-        <v>45556</v>
-      </c>
-      <c r="J74" t="n">
-        <v>311.5299999999997</v>
-      </c>
-      <c r="K74" t="n">
-        <v>6280</v>
-      </c>
-      <c r="L74" t="n">
-        <v>114690</v>
-      </c>
-      <c r="M74" t="n">
-        <v>504.5999999999995</v>
+        <v>4570.72</v>
       </c>
     </row>
     <row r="75">
@@ -3644,37 +2300,19 @@
         <v>254.4</v>
       </c>
       <c r="C75" t="n">
-        <v>217194</v>
+        <v>217186</v>
       </c>
       <c r="D75" t="n">
-        <v>5282.94</v>
+        <v>5282.39</v>
       </c>
       <c r="E75" t="n">
-        <v>128746</v>
+        <v>128743</v>
       </c>
       <c r="F75" t="n">
-        <v>473191</v>
+        <v>473088</v>
       </c>
       <c r="G75" t="n">
-        <v>6193.68</v>
-      </c>
-      <c r="H75" t="n">
-        <v>254.4</v>
-      </c>
-      <c r="I75" t="n">
-        <v>74641</v>
-      </c>
-      <c r="J75" t="n">
-        <v>799.0699999999997</v>
-      </c>
-      <c r="K75" t="n">
-        <v>7400</v>
-      </c>
-      <c r="L75" t="n">
-        <v>96302</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1118.360000000001</v>
+        <v>6193.93</v>
       </c>
     </row>
   </sheetData>
